--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_24_19.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_24_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>38600.76442184883</v>
+        <v>36111.8916111148</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673438</v>
       </c>
     </row>
     <row r="9">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>344.2204013002515</v>
+        <v>344.2204013002516</v>
       </c>
       <c r="C11" t="n">
-        <v>326.7594514077785</v>
+        <v>272.2061861033695</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>316.169601257454</v>
       </c>
       <c r="E11" t="n">
-        <v>326.5321063878111</v>
+        <v>343.4169297090328</v>
       </c>
       <c r="F11" t="n">
-        <v>368.3626053784824</v>
+        <v>368.3626053784825</v>
       </c>
       <c r="G11" t="n">
-        <v>372.6330561788416</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>258.3962588871428</v>
       </c>
       <c r="I11" t="n">
-        <v>11.72896909311288</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>75.79628804931204</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>166.388464341313</v>
+        <v>166.3884643413132</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>212.4997132667624</v>
       </c>
       <c r="V11" t="n">
-        <v>289.2388181069059</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>331.21766031524</v>
+        <v>331.2176603152401</v>
       </c>
       <c r="Y11" t="n">
-        <v>347.7244982928245</v>
+        <v>347.7244982928246</v>
       </c>
     </row>
     <row r="12">
@@ -1446,16 +1446,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>128.0197432866383</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>108.9316252014097</v>
+        <v>134.5688354531829</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>119.131640092172</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
@@ -1464,7 +1464,7 @@
         <v>135.1197321935187</v>
       </c>
       <c r="H12" t="n">
-        <v>52.24492271861105</v>
+        <v>52.24492271861115</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1497,13 +1497,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>91.86390027286599</v>
+        <v>91.86390027286609</v>
       </c>
       <c r="T12" t="n">
-        <v>178.3250846046508</v>
+        <v>191.2013147161072</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7950804382319</v>
+        <v>187.281640075003</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>78.87370400187808</v>
+        <v>141.3185398187084</v>
       </c>
       <c r="C13" t="n">
-        <v>128.7333807353988</v>
+        <v>128.7333807353989</v>
       </c>
       <c r="D13" t="n">
-        <v>110.1020326549833</v>
+        <v>110.1020326549834</v>
       </c>
       <c r="E13" t="n">
-        <v>107.9205222833401</v>
+        <v>107.9205222833402</v>
       </c>
       <c r="F13" t="n">
-        <v>106.9076076597022</v>
+        <v>106.9076076597023</v>
       </c>
       <c r="G13" t="n">
-        <v>127.6131923784187</v>
+        <v>127.6131923784188</v>
       </c>
       <c r="H13" t="n">
-        <v>107.1379958601996</v>
+        <v>107.1379958601997</v>
       </c>
       <c r="I13" t="n">
-        <v>60.87104721483891</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>54.95214767987297</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>153.0126807244089</v>
+        <v>153.0126807244091</v>
       </c>
       <c r="T13" t="n">
-        <v>181.4663044295871</v>
+        <v>181.4663044295872</v>
       </c>
       <c r="U13" t="n">
-        <v>247.7038973596176</v>
+        <v>247.7038973596177</v>
       </c>
       <c r="V13" t="n">
-        <v>213.624202960599</v>
+        <v>18.99300406511687</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>248.0095579733621</v>
       </c>
       <c r="X13" t="n">
-        <v>187.1962150258081</v>
+        <v>187.1962150258082</v>
       </c>
       <c r="Y13" t="n">
-        <v>180.0712129888657</v>
+        <v>180.0712129888659</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>344.2204013002515</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>326.7594514077785</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>316.1696012574539</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>343.4169297090327</v>
+        <v>343.4169297090328</v>
       </c>
       <c r="F14" t="n">
-        <v>246.7742148927048</v>
+        <v>368.3626053784824</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>372.6330561788417</v>
       </c>
       <c r="H14" t="n">
         <v>258.3962588871427</v>
       </c>
       <c r="I14" t="n">
-        <v>11.72896909311288</v>
+        <v>11.72896909311289</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>75.79628804931204</v>
+        <v>75.79628804931207</v>
       </c>
       <c r="T14" t="n">
-        <v>166.388464341313</v>
+        <v>166.3884643413131</v>
       </c>
       <c r="U14" t="n">
         <v>212.4997132667623</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>289.2388181069059</v>
       </c>
       <c r="W14" t="n">
-        <v>310.727528354184</v>
+        <v>183.1990572329037</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>331.21766031524</v>
       </c>
       <c r="Y14" t="n">
-        <v>347.7244982928245</v>
+        <v>347.7244982928246</v>
       </c>
     </row>
     <row r="15">
@@ -1683,7 +1683,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>128.0197432866383</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
@@ -1692,16 +1692,16 @@
         <v>108.9316252014097</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>119.1316400921719</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>96.60629183028965</v>
+        <v>135.1197321935187</v>
       </c>
       <c r="H15" t="n">
-        <v>90.7583630818401</v>
+        <v>52.24492271861109</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1734,10 +1734,10 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>130.377340636095</v>
+        <v>91.86390027286603</v>
       </c>
       <c r="T15" t="n">
-        <v>152.6878743528781</v>
+        <v>191.2013147161072</v>
       </c>
       <c r="U15" t="n">
         <v>225.7950804382319</v>
@@ -1749,10 +1749,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>192.8967550920218</v>
       </c>
       <c r="Y15" t="n">
-        <v>192.8064656658482</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1762,16 +1762,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>141.3185398187082</v>
+        <v>141.3185398187083</v>
       </c>
       <c r="C16" t="n">
         <v>128.7333807353988</v>
       </c>
       <c r="D16" t="n">
-        <v>110.1020326549833</v>
+        <v>14.7061570083296</v>
       </c>
       <c r="E16" t="n">
-        <v>107.9205222833401</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>106.9076076597022</v>
@@ -1780,10 +1780,10 @@
         <v>127.6131923784187</v>
       </c>
       <c r="H16" t="n">
-        <v>107.1379958601996</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>60.87104721483891</v>
+        <v>60.87104721483894</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>54.95214767987297</v>
+        <v>54.95214767987299</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>153.012680724409</v>
       </c>
       <c r="T16" t="n">
         <v>181.4663044295871</v>
       </c>
       <c r="U16" t="n">
-        <v>247.7038973596176</v>
+        <v>247.7038973596177</v>
       </c>
       <c r="V16" t="n">
         <v>213.624202960599</v>
@@ -1828,10 +1828,10 @@
         <v>248.009557973362</v>
       </c>
       <c r="X16" t="n">
-        <v>187.1962150258081</v>
+        <v>187.1962150258082</v>
       </c>
       <c r="Y16" t="n">
-        <v>22.62949992308322</v>
+        <v>180.0712129888658</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>285.0491214353755</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C17" t="n">
-        <v>267.5881715429024</v>
+        <v>250.035455050094</v>
       </c>
       <c r="D17" t="n">
-        <v>256.9983213925779</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>9.694611958770428</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F17" t="n">
-        <v>309.1913255136063</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G17" t="n">
-        <v>313.4617763139656</v>
+        <v>313.4617763139657</v>
       </c>
       <c r="H17" t="n">
-        <v>199.2249790222666</v>
+        <v>199.2249790222667</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>16.62500818443598</v>
+        <v>16.62500818443604</v>
       </c>
       <c r="T17" t="n">
-        <v>107.217184476437</v>
+        <v>107.2171844764371</v>
       </c>
       <c r="U17" t="n">
-        <v>153.3284334018862</v>
+        <v>153.3284334018863</v>
       </c>
       <c r="V17" t="n">
-        <v>230.0675382420298</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W17" t="n">
-        <v>251.5562484893079</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X17" t="n">
-        <v>272.0463804503639</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y17" t="n">
-        <v>288.5532184279485</v>
+        <v>288.5532184279486</v>
       </c>
     </row>
     <row r="18">
@@ -1935,10 +1935,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>37.43501196541359</v>
+        <v>135.1197321935187</v>
       </c>
       <c r="H18" t="n">
-        <v>21.5130917455732</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1986,7 +1986,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>129.6013567209466</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>82.14725995383219</v>
+        <v>82.14725995383229</v>
       </c>
       <c r="C19" t="n">
-        <v>69.56210087052273</v>
+        <v>69.56210087052283</v>
       </c>
       <c r="D19" t="n">
-        <v>50.93075279010725</v>
+        <v>50.93075279010735</v>
       </c>
       <c r="E19" t="n">
-        <v>48.74924241846406</v>
+        <v>48.74924241846416</v>
       </c>
       <c r="F19" t="n">
-        <v>47.73632779482614</v>
+        <v>47.73632779482624</v>
       </c>
       <c r="G19" t="n">
-        <v>68.4419125135426</v>
+        <v>68.4419125135427</v>
       </c>
       <c r="H19" t="n">
-        <v>47.96671599532354</v>
+        <v>47.96671599532363</v>
       </c>
       <c r="I19" t="n">
-        <v>1.699767349962855</v>
+        <v>1.699767349962926</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>93.84140085953288</v>
+        <v>93.84140085953297</v>
       </c>
       <c r="T19" t="n">
-        <v>122.295024564711</v>
+        <v>122.2950245647111</v>
       </c>
       <c r="U19" t="n">
-        <v>188.5326174947415</v>
+        <v>188.5326174947417</v>
       </c>
       <c r="V19" t="n">
-        <v>154.4529230957229</v>
+        <v>154.452923095723</v>
       </c>
       <c r="W19" t="n">
-        <v>188.8382781084859</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X19" t="n">
-        <v>128.024935160932</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y19" t="n">
-        <v>120.8999331239897</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>285.0491214353755</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C20" t="n">
-        <v>267.5881715429024</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D20" t="n">
-        <v>256.9983213925779</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E20" t="n">
-        <v>284.2456498441567</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F20" t="n">
-        <v>309.1913255136063</v>
+        <v>34.64028762821977</v>
       </c>
       <c r="G20" t="n">
-        <v>313.4617763139656</v>
+        <v>313.4617763139657</v>
       </c>
       <c r="H20" t="n">
-        <v>199.2249790222666</v>
+        <v>199.2249790222667</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>16.62500818443598</v>
+        <v>16.62500818443604</v>
       </c>
       <c r="T20" t="n">
-        <v>107.217184476437</v>
+        <v>107.2171844764371</v>
       </c>
       <c r="U20" t="n">
-        <v>108.8449337585292</v>
+        <v>153.3284334018863</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W20" t="n">
-        <v>251.5562484893079</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X20" t="n">
-        <v>272.0463804503639</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y20" t="n">
-        <v>288.5532184279485</v>
+        <v>288.5532184279486</v>
       </c>
     </row>
     <row r="21">
@@ -2175,10 +2175,10 @@
         <v>135.1197321935187</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>90.75836308184009</v>
       </c>
       <c r="I21" t="n">
-        <v>13.90332475949994</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,19 +2205,19 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>7.609766986073197</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>32.69262040798993</v>
+        <v>130.377340636095</v>
       </c>
       <c r="T21" t="n">
         <v>191.2013147161072</v>
       </c>
       <c r="U21" t="n">
-        <v>225.7950804382319</v>
+        <v>156.5498091019657</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>135.1158669213203</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>82.14725995383219</v>
+        <v>82.14725995383229</v>
       </c>
       <c r="C22" t="n">
-        <v>69.56210087052273</v>
+        <v>69.56210087052283</v>
       </c>
       <c r="D22" t="n">
-        <v>50.93075279010725</v>
+        <v>50.93075279010735</v>
       </c>
       <c r="E22" t="n">
-        <v>48.74924241846406</v>
+        <v>48.74924241846416</v>
       </c>
       <c r="F22" t="n">
-        <v>47.73632779482614</v>
+        <v>47.73632779482624</v>
       </c>
       <c r="G22" t="n">
-        <v>68.4419125135426</v>
+        <v>68.4419125135427</v>
       </c>
       <c r="H22" t="n">
-        <v>47.96671599532354</v>
+        <v>47.96671599532363</v>
       </c>
       <c r="I22" t="n">
-        <v>1.699767349962855</v>
+        <v>1.699767349962926</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>93.84140085953288</v>
+        <v>93.84140085953297</v>
       </c>
       <c r="T22" t="n">
-        <v>122.295024564711</v>
+        <v>122.2950245647111</v>
       </c>
       <c r="U22" t="n">
-        <v>188.5326174947415</v>
+        <v>188.5326174947417</v>
       </c>
       <c r="V22" t="n">
-        <v>154.4529230957229</v>
+        <v>154.452923095723</v>
       </c>
       <c r="W22" t="n">
-        <v>188.8382781084859</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X22" t="n">
-        <v>128.024935160932</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y22" t="n">
-        <v>120.8999331239897</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
     <row r="23">
@@ -2315,22 +2315,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>285.0491214353755</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C23" t="n">
-        <v>267.5881715429024</v>
+        <v>267.5881715429025</v>
       </c>
       <c r="D23" t="n">
-        <v>256.9983213925779</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E23" t="n">
-        <v>284.2456498441567</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F23" t="n">
-        <v>309.1913255136063</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G23" t="n">
-        <v>313.2370054253483</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H23" t="n">
         <v>196.9230441592154</v>
@@ -2366,22 +2366,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>11.50304156007074</v>
+        <v>11.50304156007083</v>
       </c>
       <c r="T23" t="n">
-        <v>106.233249911515</v>
+        <v>106.2332499115151</v>
       </c>
       <c r="U23" t="n">
-        <v>153.3104517307969</v>
+        <v>153.310451730797</v>
       </c>
       <c r="V23" t="n">
-        <v>230.0675382420298</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W23" t="n">
-        <v>251.5562484893079</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X23" t="n">
-        <v>272.0463804503639</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y23" t="n">
         <v>288.5532184279485</v>
@@ -2442,13 +2442,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
       </c>
       <c r="T24" t="n">
-        <v>190.7165703189231</v>
+        <v>190.7165703189221</v>
       </c>
       <c r="U24" t="n">
         <v>225.7871683969286</v>
@@ -2473,25 +2473,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>82.14725995383219</v>
+        <v>82.14725995383228</v>
       </c>
       <c r="C25" t="n">
-        <v>69.56210087052273</v>
+        <v>69.56210087052281</v>
       </c>
       <c r="D25" t="n">
-        <v>50.93075279010725</v>
+        <v>50.93075279010733</v>
       </c>
       <c r="E25" t="n">
-        <v>48.74924241846406</v>
+        <v>48.74924241846415</v>
       </c>
       <c r="F25" t="n">
-        <v>47.73632779482614</v>
+        <v>47.73632779482622</v>
       </c>
       <c r="G25" t="n">
-        <v>68.34108803092312</v>
+        <v>68.3410880309232</v>
       </c>
       <c r="H25" t="n">
-        <v>47.07029468621568</v>
+        <v>47.07029468621576</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>92.08430510333679</v>
+        <v>92.08430510333687</v>
       </c>
       <c r="T25" t="n">
-        <v>121.8642290480641</v>
+        <v>121.8642290480642</v>
       </c>
       <c r="U25" t="n">
-        <v>188.5271179775077</v>
+        <v>188.5271179775078</v>
       </c>
       <c r="V25" t="n">
-        <v>154.4529230957229</v>
+        <v>154.452923095723</v>
       </c>
       <c r="W25" t="n">
-        <v>188.8382781084859</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X25" t="n">
-        <v>128.024935160932</v>
+        <v>128.0249351609321</v>
       </c>
       <c r="Y25" t="n">
-        <v>120.8999331239897</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
     <row r="26">
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>50.01648192329979</v>
+        <v>50.01648192329977</v>
       </c>
       <c r="T26" t="n">
         <v>144.7466902747441</v>
@@ -2631,7 +2631,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>166.5331836498664</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
@@ -2685,7 +2685,7 @@
         <v>128.1435076414547</v>
       </c>
       <c r="T27" t="n">
-        <v>190.7165703189221</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U27" t="n">
         <v>225.7871683969286</v>
@@ -2713,25 +2713,25 @@
         <v>120.6607003170612</v>
       </c>
       <c r="C28" t="n">
-        <v>108.0755412337518</v>
+        <v>108.0755412337517</v>
       </c>
       <c r="D28" t="n">
-        <v>89.4441931533363</v>
+        <v>89.44419315333627</v>
       </c>
       <c r="E28" t="n">
-        <v>87.26268278169312</v>
+        <v>87.26268278169309</v>
       </c>
       <c r="F28" t="n">
-        <v>86.24976815805519</v>
+        <v>86.24976815805516</v>
       </c>
       <c r="G28" t="n">
-        <v>106.8545283941522</v>
+        <v>106.8545283941521</v>
       </c>
       <c r="H28" t="n">
-        <v>85.58373504944473</v>
+        <v>85.5837350494447</v>
       </c>
       <c r="I28" t="n">
-        <v>37.18114054496206</v>
+        <v>37.18114054496203</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>29.76087280517129</v>
+        <v>29.76087280517126</v>
       </c>
       <c r="S28" t="n">
         <v>130.5977454665658</v>
@@ -2789,16 +2789,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>323.5625617986045</v>
+        <v>323.5625617986046</v>
       </c>
       <c r="C29" t="n">
-        <v>306.1016119061315</v>
+        <v>306.1016119061316</v>
       </c>
       <c r="D29" t="n">
-        <v>295.5117617558069</v>
+        <v>295.511761755807</v>
       </c>
       <c r="E29" t="n">
-        <v>322.7590902073857</v>
+        <v>322.7590902073858</v>
       </c>
       <c r="F29" t="n">
         <v>347.7047658768354</v>
@@ -2807,7 +2807,7 @@
         <v>351.7504457885775</v>
       </c>
       <c r="H29" t="n">
-        <v>235.4364845224444</v>
+        <v>235.4364845224445</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,16 +2840,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>50.01648192329979</v>
+        <v>50.01648192329981</v>
       </c>
       <c r="T29" t="n">
         <v>144.7466902747441</v>
       </c>
       <c r="U29" t="n">
-        <v>191.8238920940259</v>
+        <v>191.823892094026</v>
       </c>
       <c r="V29" t="n">
-        <v>268.5809786052588</v>
+        <v>268.5809786052589</v>
       </c>
       <c r="W29" t="n">
         <v>290.069688852537</v>
@@ -2858,7 +2858,7 @@
         <v>310.559820813593</v>
       </c>
       <c r="Y29" t="n">
-        <v>327.0666587911775</v>
+        <v>327.0666587911776</v>
       </c>
     </row>
     <row r="30">
@@ -2886,10 +2886,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851025</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>120.6607003170612</v>
+        <v>120.6607003170613</v>
       </c>
       <c r="C31" t="n">
         <v>108.0755412337518</v>
       </c>
       <c r="D31" t="n">
-        <v>89.4441931533363</v>
+        <v>89.44419315333634</v>
       </c>
       <c r="E31" t="n">
-        <v>87.26268278169312</v>
+        <v>87.26268278169316</v>
       </c>
       <c r="F31" t="n">
-        <v>86.24976815805519</v>
+        <v>86.24976815805523</v>
       </c>
       <c r="G31" t="n">
         <v>106.8545283941522</v>
       </c>
       <c r="H31" t="n">
-        <v>85.58373504944473</v>
+        <v>85.58373504944477</v>
       </c>
       <c r="I31" t="n">
-        <v>37.18114054496206</v>
+        <v>37.18114054496208</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>29.76087280517129</v>
+        <v>29.76087280517132</v>
       </c>
       <c r="S31" t="n">
-        <v>130.5977454665658</v>
+        <v>130.5977454665659</v>
       </c>
       <c r="T31" t="n">
-        <v>160.3776694112931</v>
+        <v>160.3776694112932</v>
       </c>
       <c r="U31" t="n">
-        <v>227.0405583407368</v>
+        <v>227.0405583407369</v>
       </c>
       <c r="V31" t="n">
-        <v>192.9663634589519</v>
+        <v>192.966363458952</v>
       </c>
       <c r="W31" t="n">
-        <v>227.3517184717149</v>
+        <v>227.351718471715</v>
       </c>
       <c r="X31" t="n">
-        <v>166.5383755241611</v>
+        <v>166.5383755241612</v>
       </c>
       <c r="Y31" t="n">
-        <v>159.4133734872187</v>
+        <v>159.4133734872188</v>
       </c>
     </row>
     <row r="32">
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>50.01648192329981</v>
+        <v>50.01648192329984</v>
       </c>
       <c r="T32" t="n">
-        <v>144.7466902747441</v>
+        <v>144.7466902747442</v>
       </c>
       <c r="U32" t="n">
         <v>191.823892094026</v>
@@ -3123,10 +3123,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3190,22 +3190,22 @@
         <v>108.0755412337518</v>
       </c>
       <c r="D34" t="n">
-        <v>89.44419315333633</v>
+        <v>89.44419315333636</v>
       </c>
       <c r="E34" t="n">
-        <v>87.26268278169314</v>
+        <v>87.26268278169317</v>
       </c>
       <c r="F34" t="n">
-        <v>86.24976815805522</v>
+        <v>86.24976815805525</v>
       </c>
       <c r="G34" t="n">
         <v>106.8545283941522</v>
       </c>
       <c r="H34" t="n">
-        <v>85.58373504944475</v>
+        <v>85.58373504944478</v>
       </c>
       <c r="I34" t="n">
-        <v>37.18114054496207</v>
+        <v>37.18114054496211</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>29.7608728051713</v>
+        <v>29.76087280517135</v>
       </c>
       <c r="S34" t="n">
         <v>130.5977454665659</v>
@@ -3241,7 +3241,7 @@
         <v>160.3776694112932</v>
       </c>
       <c r="U34" t="n">
-        <v>227.0405583407368</v>
+        <v>227.0405583407369</v>
       </c>
       <c r="V34" t="n">
         <v>192.966363458952</v>
@@ -3250,7 +3250,7 @@
         <v>227.351718471715</v>
       </c>
       <c r="X34" t="n">
-        <v>166.5383755241611</v>
+        <v>166.5383755241612</v>
       </c>
       <c r="Y34" t="n">
         <v>159.4133734872188</v>
@@ -3275,13 +3275,13 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F35" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G35" t="n">
         <v>313.2370054253485</v>
       </c>
       <c r="H35" t="n">
-        <v>196.9230441592156</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.5030415600709</v>
+        <v>11.50304156007088</v>
       </c>
       <c r="T35" t="n">
         <v>106.2332499115152</v>
@@ -3323,13 +3323,13 @@
         <v>153.310451730797</v>
       </c>
       <c r="V35" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W35" t="n">
-        <v>251.5562484893081</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X35" t="n">
-        <v>272.0463804503641</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y35" t="n">
         <v>288.5532184279487</v>
@@ -3360,7 +3360,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851002</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
         <v>18.81721868247745</v>
@@ -3393,7 +3393,7 @@
         <v>0.1429098734098488</v>
       </c>
       <c r="S36" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414539</v>
       </c>
       <c r="T36" t="n">
         <v>190.7165703189231</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.14725995383235</v>
+        <v>82.14725995383233</v>
       </c>
       <c r="C37" t="n">
-        <v>69.56210087052288</v>
+        <v>69.56210087052287</v>
       </c>
       <c r="D37" t="n">
-        <v>50.93075279010741</v>
+        <v>50.93075279010739</v>
       </c>
       <c r="E37" t="n">
-        <v>48.74924241846422</v>
+        <v>48.74924241846421</v>
       </c>
       <c r="F37" t="n">
-        <v>47.73632779482629</v>
+        <v>47.73632779482628</v>
       </c>
       <c r="G37" t="n">
-        <v>68.34108803092327</v>
+        <v>68.34108803092326</v>
       </c>
       <c r="H37" t="n">
-        <v>47.07029468621583</v>
+        <v>47.07029468621582</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,19 +3472,19 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>92.08430510333696</v>
+        <v>92.08430510333693</v>
       </c>
       <c r="T37" t="n">
-        <v>121.8642290480643</v>
+        <v>121.8642290480642</v>
       </c>
       <c r="U37" t="n">
         <v>188.5271179775079</v>
       </c>
       <c r="V37" t="n">
-        <v>154.4529230957231</v>
+        <v>154.452923095723</v>
       </c>
       <c r="W37" t="n">
-        <v>188.8382781084861</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X37" t="n">
         <v>128.0249351609322</v>
@@ -3512,7 +3512,7 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F38" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G38" t="n">
         <v>313.2370054253485</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.5030415600709</v>
+        <v>11.50304156007087</v>
       </c>
       <c r="T38" t="n">
         <v>106.2332499115152</v>
@@ -3560,16 +3560,16 @@
         <v>153.310451730797</v>
       </c>
       <c r="V38" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W38" t="n">
-        <v>251.5562484893081</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X38" t="n">
-        <v>272.0463804503641</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y38" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279486</v>
       </c>
     </row>
     <row r="39">
@@ -3579,7 +3579,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>166.5331836498662</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.14725995383235</v>
+        <v>82.14725995383232</v>
       </c>
       <c r="C40" t="n">
-        <v>69.56210087052288</v>
+        <v>69.56210087052285</v>
       </c>
       <c r="D40" t="n">
-        <v>50.93075279010741</v>
+        <v>50.93075279010738</v>
       </c>
       <c r="E40" t="n">
-        <v>48.74924241846422</v>
+        <v>48.74924241846419</v>
       </c>
       <c r="F40" t="n">
-        <v>47.73632779482629</v>
+        <v>47.73632779482627</v>
       </c>
       <c r="G40" t="n">
-        <v>68.34108803092327</v>
+        <v>68.34108803092325</v>
       </c>
       <c r="H40" t="n">
-        <v>47.07029468621583</v>
+        <v>47.0702946862158</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,19 +3709,19 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>92.08430510333696</v>
+        <v>92.08430510333693</v>
       </c>
       <c r="T40" t="n">
-        <v>121.8642290480643</v>
+        <v>121.8642290480642</v>
       </c>
       <c r="U40" t="n">
         <v>188.5271179775079</v>
       </c>
       <c r="V40" t="n">
-        <v>154.4529230957231</v>
+        <v>154.452923095723</v>
       </c>
       <c r="W40" t="n">
-        <v>188.8382781084861</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X40" t="n">
         <v>128.0249351609322</v>
@@ -3837,7 +3837,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247633</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>11.50304156007004</v>
+        <v>11.50304156007083</v>
       </c>
       <c r="T44" t="n">
         <v>106.2332499115151</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -5015,46 +5015,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1481.249135285656</v>
+        <v>1635.325289719449</v>
       </c>
       <c r="C11" t="n">
-        <v>1151.189083358607</v>
+        <v>1360.369546180692</v>
       </c>
       <c r="D11" t="n">
-        <v>1151.189083358607</v>
+        <v>1041.006312587304</v>
       </c>
       <c r="E11" t="n">
-        <v>821.3586728658686</v>
+        <v>694.1205250024224</v>
       </c>
       <c r="F11" t="n">
-        <v>449.2752330896237</v>
+        <v>322.0370852261775</v>
       </c>
       <c r="G11" t="n">
-        <v>72.87820664634931</v>
+        <v>322.0370852261775</v>
       </c>
       <c r="H11" t="n">
-        <v>72.87820664634931</v>
+        <v>61.03076311795246</v>
       </c>
       <c r="I11" t="n">
         <v>61.03076311795246</v>
       </c>
       <c r="J11" t="n">
-        <v>231.0235173512788</v>
+        <v>231.0235173512787</v>
       </c>
       <c r="K11" t="n">
-        <v>536.5371081174101</v>
+        <v>536.53710811741</v>
       </c>
       <c r="L11" t="n">
-        <v>952.4554946804096</v>
+        <v>952.4554946804089</v>
       </c>
       <c r="M11" t="n">
-        <v>1446.914276069382</v>
+        <v>1446.914276069381</v>
       </c>
       <c r="N11" t="n">
         <v>1953.987725860801</v>
       </c>
       <c r="O11" t="n">
-        <v>2419.467544341226</v>
+        <v>2419.467544341225</v>
       </c>
       <c r="P11" t="n">
         <v>2782.242799299102</v>
@@ -5066,25 +5066,25 @@
         <v>3051.538155897623</v>
       </c>
       <c r="S11" t="n">
-        <v>2974.976248777106</v>
+        <v>3051.538155897623</v>
       </c>
       <c r="T11" t="n">
-        <v>2806.907092876789</v>
+        <v>2883.468999997307</v>
       </c>
       <c r="U11" t="n">
-        <v>2806.907092876789</v>
+        <v>2668.822824980375</v>
       </c>
       <c r="V11" t="n">
-        <v>2514.746670546581</v>
+        <v>2668.822824980375</v>
       </c>
       <c r="W11" t="n">
-        <v>2514.746670546581</v>
+        <v>2668.822824980375</v>
       </c>
       <c r="X11" t="n">
-        <v>2180.183377298864</v>
+        <v>2334.259531732657</v>
       </c>
       <c r="Y11" t="n">
-        <v>1828.946510336415</v>
+        <v>1983.022664770208</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1516.230014591043</v>
+        <v>827.5386841676336</v>
       </c>
       <c r="C12" t="n">
-        <v>1341.776985309916</v>
+        <v>653.0856548865066</v>
       </c>
       <c r="D12" t="n">
-        <v>1231.745040662027</v>
+        <v>517.15753826713</v>
       </c>
       <c r="E12" t="n">
-        <v>1072.507585656572</v>
+        <v>396.822548275037</v>
       </c>
       <c r="F12" t="n">
-        <v>925.9730276834568</v>
+        <v>250.287990301922</v>
       </c>
       <c r="G12" t="n">
-        <v>789.4884497102056</v>
+        <v>113.8034123286708</v>
       </c>
       <c r="H12" t="n">
-        <v>736.7158004994874</v>
+        <v>61.03076311795246</v>
       </c>
       <c r="I12" t="n">
-        <v>736.7158004994874</v>
+        <v>61.03076311795246</v>
       </c>
       <c r="J12" t="n">
-        <v>819.1444733969115</v>
+        <v>143.4594360153767</v>
       </c>
       <c r="K12" t="n">
-        <v>1038.183029149387</v>
+        <v>362.4979917678518</v>
       </c>
       <c r="L12" t="n">
-        <v>1379.02993955044</v>
+        <v>703.3449021689056</v>
       </c>
       <c r="M12" t="n">
-        <v>1796.139075450591</v>
+        <v>1120.454038069056</v>
       </c>
       <c r="N12" t="n">
-        <v>2238.696493946795</v>
+        <v>1563.011456565261</v>
       </c>
       <c r="O12" t="n">
-        <v>2621.330276062452</v>
+        <v>1945.645238680918</v>
       </c>
       <c r="P12" t="n">
-        <v>2909.094553557104</v>
+        <v>2233.409516175569</v>
       </c>
       <c r="Q12" t="n">
-        <v>3051.538155897623</v>
+        <v>2375.853118516088</v>
       </c>
       <c r="R12" t="n">
-        <v>3051.538155897623</v>
+        <v>2375.853118516088</v>
       </c>
       <c r="S12" t="n">
-        <v>2958.746337440182</v>
+        <v>2283.061300058648</v>
       </c>
       <c r="T12" t="n">
-        <v>2778.619989354676</v>
+        <v>2089.928658931267</v>
       </c>
       <c r="U12" t="n">
-        <v>2550.54415052818</v>
+        <v>1900.755285118133</v>
       </c>
       <c r="V12" t="n">
-        <v>2315.392042296437</v>
+        <v>1665.60317688639</v>
       </c>
       <c r="W12" t="n">
-        <v>2061.154685568235</v>
+        <v>1411.365820158188</v>
       </c>
       <c r="X12" t="n">
-        <v>1853.303185362702</v>
+        <v>1203.514319952656</v>
       </c>
       <c r="Y12" t="n">
-        <v>1645.542886597749</v>
+        <v>995.7540211877017</v>
       </c>
     </row>
     <row r="13">
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>817.8850851249036</v>
+        <v>756.3991788472895</v>
       </c>
       <c r="C13" t="n">
-        <v>687.8513672103595</v>
+        <v>626.3654609327452</v>
       </c>
       <c r="D13" t="n">
-        <v>576.6371928113864</v>
+        <v>515.1512865337721</v>
       </c>
       <c r="E13" t="n">
-        <v>467.6265642423559</v>
+        <v>406.1406579647415</v>
       </c>
       <c r="F13" t="n">
-        <v>359.6390817578082</v>
+        <v>298.1531754801936</v>
       </c>
       <c r="G13" t="n">
-        <v>230.736867234153</v>
+        <v>169.2509609565381</v>
       </c>
       <c r="H13" t="n">
-        <v>122.5166693955675</v>
+        <v>61.03076311795246</v>
       </c>
       <c r="I13" t="n">
         <v>61.03076311795246</v>
       </c>
       <c r="J13" t="n">
-        <v>137.2246935124985</v>
+        <v>137.2246935124988</v>
       </c>
       <c r="K13" t="n">
-        <v>367.7433504300774</v>
+        <v>367.7433504300777</v>
       </c>
       <c r="L13" t="n">
-        <v>707.5915025393375</v>
+        <v>707.5915025393379</v>
       </c>
       <c r="M13" t="n">
         <v>1074.230205114212</v>
@@ -5215,34 +5215,34 @@
         <v>1761.841614514367</v>
       </c>
       <c r="P13" t="n">
-        <v>2020.505100656696</v>
+        <v>2020.505100656695</v>
       </c>
       <c r="Q13" t="n">
-        <v>2127.885453984134</v>
+        <v>2127.885453984133</v>
       </c>
       <c r="R13" t="n">
-        <v>2072.378234105474</v>
+        <v>2127.885453984133</v>
       </c>
       <c r="S13" t="n">
-        <v>1917.819970747485</v>
+        <v>1973.327190626144</v>
       </c>
       <c r="T13" t="n">
-        <v>1734.520673343862</v>
+        <v>1790.027893222521</v>
       </c>
       <c r="U13" t="n">
-        <v>1484.314716414955</v>
+        <v>1539.821936293614</v>
       </c>
       <c r="V13" t="n">
-        <v>1268.532693222431</v>
+        <v>1520.637083702587</v>
       </c>
       <c r="W13" t="n">
-        <v>1268.532693222431</v>
+        <v>1270.122378678989</v>
       </c>
       <c r="X13" t="n">
-        <v>1079.445607337776</v>
+        <v>1081.035292794334</v>
       </c>
       <c r="Y13" t="n">
-        <v>897.5554932076088</v>
+        <v>899.1451786641667</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1579.460485589898</v>
+        <v>1429.250782558976</v>
       </c>
       <c r="C14" t="n">
-        <v>1249.400433662849</v>
+        <v>1429.250782558976</v>
       </c>
       <c r="D14" t="n">
-        <v>930.0372000694614</v>
+        <v>1429.250782558976</v>
       </c>
       <c r="E14" t="n">
-        <v>583.1514124845799</v>
+        <v>1082.364994974094</v>
       </c>
       <c r="F14" t="n">
-        <v>333.8845287545743</v>
+        <v>710.2815551978488</v>
       </c>
       <c r="G14" t="n">
         <v>333.8845287545743</v>
       </c>
       <c r="H14" t="n">
-        <v>72.87820664634931</v>
+        <v>72.87820664634934</v>
       </c>
       <c r="I14" t="n">
-        <v>61.03076311795246</v>
+        <v>61.03076311795248</v>
       </c>
       <c r="J14" t="n">
-        <v>231.0235173512788</v>
+        <v>231.0235173512787</v>
       </c>
       <c r="K14" t="n">
-        <v>536.5371081174103</v>
+        <v>536.53710811741</v>
       </c>
       <c r="L14" t="n">
         <v>952.4554946804092</v>
       </c>
       <c r="M14" t="n">
-        <v>1446.914276069381</v>
+        <v>1446.914276069382</v>
       </c>
       <c r="N14" t="n">
-        <v>1953.9877258608</v>
+        <v>1953.987725860801</v>
       </c>
       <c r="O14" t="n">
-        <v>2419.467544341225</v>
+        <v>2419.467544341226</v>
       </c>
       <c r="P14" t="n">
-        <v>2782.242799299102</v>
+        <v>2782.242799299103</v>
       </c>
       <c r="Q14" t="n">
-        <v>3006.499161029602</v>
+        <v>3006.499161029603</v>
       </c>
       <c r="R14" t="n">
-        <v>3051.538155897623</v>
+        <v>3051.538155897624</v>
       </c>
       <c r="S14" t="n">
-        <v>2974.976248777105</v>
+        <v>2974.976248777107</v>
       </c>
       <c r="T14" t="n">
-        <v>2806.907092876789</v>
+        <v>2806.907092876791</v>
       </c>
       <c r="U14" t="n">
-        <v>2592.260917859858</v>
+        <v>2592.260917859859</v>
       </c>
       <c r="V14" t="n">
-        <v>2592.260917859858</v>
+        <v>2300.100495529651</v>
       </c>
       <c r="W14" t="n">
-        <v>2278.394727603106</v>
+        <v>2115.050942769142</v>
       </c>
       <c r="X14" t="n">
-        <v>2278.394727603106</v>
+        <v>1780.487649521425</v>
       </c>
       <c r="Y14" t="n">
-        <v>1927.157860640657</v>
+        <v>1429.250782558976</v>
       </c>
     </row>
     <row r="15">
@@ -5331,46 +5331,46 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>840.5449772095081</v>
+        <v>801.6425121961455</v>
       </c>
       <c r="C15" t="n">
-        <v>666.0919479283812</v>
+        <v>627.1894829150185</v>
       </c>
       <c r="D15" t="n">
-        <v>556.0600032804925</v>
+        <v>517.1575382671299</v>
       </c>
       <c r="E15" t="n">
         <v>396.822548275037</v>
       </c>
       <c r="F15" t="n">
-        <v>250.2879903019219</v>
+        <v>250.287990301922</v>
       </c>
       <c r="G15" t="n">
-        <v>152.7058773420334</v>
+        <v>113.8034123286708</v>
       </c>
       <c r="H15" t="n">
-        <v>61.03076311795246</v>
+        <v>61.0307631179525</v>
       </c>
       <c r="I15" t="n">
-        <v>61.03076311795246</v>
+        <v>61.0307631179525</v>
       </c>
       <c r="J15" t="n">
-        <v>143.4594360153766</v>
+        <v>143.4594360153767</v>
       </c>
       <c r="K15" t="n">
-        <v>362.4979917678517</v>
+        <v>362.4979917678519</v>
       </c>
       <c r="L15" t="n">
-        <v>703.3449021689054</v>
+        <v>703.3449021689057</v>
       </c>
       <c r="M15" t="n">
         <v>1120.454038069056</v>
       </c>
       <c r="N15" t="n">
-        <v>1563.01145656526</v>
+        <v>1563.011456565261</v>
       </c>
       <c r="O15" t="n">
-        <v>1945.645238680917</v>
+        <v>1945.645238680918</v>
       </c>
       <c r="P15" t="n">
         <v>2233.409516175569</v>
@@ -5382,10 +5382,10 @@
         <v>2375.853118516088</v>
       </c>
       <c r="S15" t="n">
-        <v>2244.158835045285</v>
+        <v>2283.061300058648</v>
       </c>
       <c r="T15" t="n">
-        <v>2089.928658931266</v>
+        <v>2089.928658931267</v>
       </c>
       <c r="U15" t="n">
         <v>1861.85282010477</v>
@@ -5394,10 +5394,10 @@
         <v>1626.700711873027</v>
       </c>
       <c r="W15" t="n">
-        <v>1372.463355144825</v>
+        <v>1372.463355144826</v>
       </c>
       <c r="X15" t="n">
-        <v>1164.611854939292</v>
+        <v>1177.618147981167</v>
       </c>
       <c r="Y15" t="n">
         <v>969.8578492162135</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>817.8850851249026</v>
+        <v>504.2947883671334</v>
       </c>
       <c r="C16" t="n">
-        <v>687.8513672103584</v>
+        <v>374.2610704525891</v>
       </c>
       <c r="D16" t="n">
-        <v>576.6371928113854</v>
+        <v>359.4063664037706</v>
       </c>
       <c r="E16" t="n">
-        <v>467.6265642423549</v>
+        <v>359.4063664037706</v>
       </c>
       <c r="F16" t="n">
-        <v>359.6390817578072</v>
+        <v>251.4188839192228</v>
       </c>
       <c r="G16" t="n">
-        <v>230.736867234153</v>
+        <v>122.5166693955676</v>
       </c>
       <c r="H16" t="n">
-        <v>122.5166693955675</v>
+        <v>122.5166693955676</v>
       </c>
       <c r="I16" t="n">
-        <v>61.03076311795246</v>
+        <v>61.0307631179525</v>
       </c>
       <c r="J16" t="n">
-        <v>137.2246935124985</v>
+        <v>137.2246935124987</v>
       </c>
       <c r="K16" t="n">
-        <v>367.7433504300775</v>
+        <v>367.7433504300777</v>
       </c>
       <c r="L16" t="n">
-        <v>707.5915025393373</v>
+        <v>707.5915025393379</v>
       </c>
       <c r="M16" t="n">
         <v>1074.230205114212</v>
@@ -5452,34 +5452,34 @@
         <v>1761.841614514367</v>
       </c>
       <c r="P16" t="n">
-        <v>2020.505100656695</v>
+        <v>2020.505100656696</v>
       </c>
       <c r="Q16" t="n">
-        <v>2127.885453984133</v>
+        <v>2127.885453984134</v>
       </c>
       <c r="R16" t="n">
         <v>2072.378234105474</v>
       </c>
       <c r="S16" t="n">
-        <v>2072.378234105474</v>
+        <v>1917.819970747485</v>
       </c>
       <c r="T16" t="n">
-        <v>1889.07893670185</v>
+        <v>1734.520673343862</v>
       </c>
       <c r="U16" t="n">
-        <v>1638.872979772944</v>
+        <v>1484.314716414955</v>
       </c>
       <c r="V16" t="n">
-        <v>1423.09095658042</v>
+        <v>1268.532693222431</v>
       </c>
       <c r="W16" t="n">
-        <v>1172.576251556821</v>
+        <v>1018.017988198833</v>
       </c>
       <c r="X16" t="n">
-        <v>983.4891656721668</v>
+        <v>828.930902314178</v>
       </c>
       <c r="Y16" t="n">
-        <v>960.6310849417797</v>
+        <v>647.0407881840105</v>
       </c>
     </row>
     <row r="17">
@@ -5489,61 +5489,61 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1430.888526495821</v>
+        <v>1430.88852649582</v>
       </c>
       <c r="C17" t="n">
-        <v>1160.597444129253</v>
+        <v>1178.327460788655</v>
       </c>
       <c r="D17" t="n">
-        <v>901.0031800963457</v>
+        <v>1178.327460788655</v>
       </c>
       <c r="E17" t="n">
-        <v>891.210642764254</v>
+        <v>891.2106427642537</v>
       </c>
       <c r="F17" t="n">
-        <v>578.89617254849</v>
+        <v>578.8961725484896</v>
       </c>
       <c r="G17" t="n">
-        <v>262.2681156656965</v>
+        <v>262.2681156656967</v>
       </c>
       <c r="H17" t="n">
-        <v>61.03076311795246</v>
+        <v>61.03076311795248</v>
       </c>
       <c r="I17" t="n">
-        <v>61.03076311795246</v>
+        <v>61.03076311795248</v>
       </c>
       <c r="J17" t="n">
-        <v>231.0235173512788</v>
+        <v>231.0235173512783</v>
       </c>
       <c r="K17" t="n">
-        <v>536.5371081174098</v>
+        <v>536.5371081174103</v>
       </c>
       <c r="L17" t="n">
-        <v>952.4554946804092</v>
+        <v>952.4554946804096</v>
       </c>
       <c r="M17" t="n">
-        <v>1446.914276069381</v>
+        <v>1446.914276069382</v>
       </c>
       <c r="N17" t="n">
-        <v>1953.987725860801</v>
+        <v>1953.987725860802</v>
       </c>
       <c r="O17" t="n">
-        <v>2419.467544341225</v>
+        <v>2419.467544341227</v>
       </c>
       <c r="P17" t="n">
-        <v>2782.242799299102</v>
+        <v>2782.242799299104</v>
       </c>
       <c r="Q17" t="n">
-        <v>3006.499161029602</v>
+        <v>3006.499161029603</v>
       </c>
       <c r="R17" t="n">
-        <v>3051.538155897623</v>
+        <v>3051.538155897624</v>
       </c>
       <c r="S17" t="n">
-        <v>3034.745218337587</v>
+        <v>3034.745218337588</v>
       </c>
       <c r="T17" t="n">
-        <v>2926.445031997751</v>
+        <v>2926.445031997752</v>
       </c>
       <c r="U17" t="n">
         <v>2771.567826541301</v>
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>749.7337541409081</v>
+        <v>826.6747930121525</v>
       </c>
       <c r="C18" t="n">
-        <v>575.2807248597811</v>
+        <v>652.2217637310255</v>
       </c>
       <c r="D18" t="n">
-        <v>426.3463151985299</v>
+        <v>503.2873540697743</v>
       </c>
       <c r="E18" t="n">
-        <v>267.1088601930743</v>
+        <v>344.0498990643188</v>
       </c>
       <c r="F18" t="n">
-        <v>120.5743022199593</v>
+        <v>197.5153410912037</v>
       </c>
       <c r="G18" t="n">
-        <v>82.76115882055166</v>
+        <v>61.03076311795248</v>
       </c>
       <c r="H18" t="n">
-        <v>61.03076311795246</v>
+        <v>61.03076311795248</v>
       </c>
       <c r="I18" t="n">
-        <v>61.03076311795246</v>
+        <v>61.03076311795248</v>
       </c>
       <c r="J18" t="n">
-        <v>143.4594360153766</v>
+        <v>143.4594360153767</v>
       </c>
       <c r="K18" t="n">
-        <v>362.4979917678517</v>
+        <v>362.4979917678519</v>
       </c>
       <c r="L18" t="n">
-        <v>703.3449021689054</v>
+        <v>703.3449021689057</v>
       </c>
       <c r="M18" t="n">
         <v>1120.454038069056</v>
       </c>
       <c r="N18" t="n">
-        <v>1563.01145656526</v>
+        <v>1563.011456565261</v>
       </c>
       <c r="O18" t="n">
-        <v>1945.645238680917</v>
+        <v>1945.645238680918</v>
       </c>
       <c r="P18" t="n">
-        <v>2233.409516175569</v>
+        <v>2233.40951617557</v>
       </c>
       <c r="Q18" t="n">
-        <v>2375.853118516088</v>
+        <v>2375.853118516089</v>
       </c>
       <c r="R18" t="n">
-        <v>2375.853118516088</v>
+        <v>2375.853118516089</v>
       </c>
       <c r="S18" t="n">
-        <v>2244.158835045285</v>
+        <v>2244.158835045286</v>
       </c>
       <c r="T18" t="n">
-        <v>2051.026193917904</v>
+        <v>2051.026193917905</v>
       </c>
       <c r="U18" t="n">
-        <v>1822.950355091407</v>
+        <v>1822.950355091408</v>
       </c>
       <c r="V18" t="n">
-        <v>1587.798246859664</v>
+        <v>1587.798246859665</v>
       </c>
       <c r="W18" t="n">
-        <v>1333.560890131463</v>
+        <v>1333.560890131464</v>
       </c>
       <c r="X18" t="n">
-        <v>1125.70938992593</v>
+        <v>1202.650428797174</v>
       </c>
       <c r="Y18" t="n">
-        <v>917.9490911609762</v>
+        <v>994.8901300322204</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>399.5022982015375</v>
+        <v>399.5022982015382</v>
       </c>
       <c r="C19" t="n">
-        <v>329.2375498474742</v>
+        <v>329.2375498474747</v>
       </c>
       <c r="D19" t="n">
-        <v>277.792345008982</v>
+        <v>277.7923450089825</v>
       </c>
       <c r="E19" t="n">
-        <v>228.5506860004324</v>
+        <v>228.5506860004328</v>
       </c>
       <c r="F19" t="n">
-        <v>180.3321730763656</v>
+        <v>180.3321730763659</v>
       </c>
       <c r="G19" t="n">
-        <v>111.1989281131912</v>
+        <v>111.1989281131914</v>
       </c>
       <c r="H19" t="n">
-        <v>62.74769983508666</v>
+        <v>62.74769983508675</v>
       </c>
       <c r="I19" t="n">
-        <v>61.03076311795246</v>
+        <v>61.03076311795248</v>
       </c>
       <c r="J19" t="n">
         <v>162.5043816692298</v>
       </c>
       <c r="K19" t="n">
-        <v>345.92627697183</v>
+        <v>249.2184039460061</v>
       </c>
       <c r="L19" t="n">
-        <v>575.3545129962357</v>
+        <v>486.7961685953546</v>
       </c>
       <c r="M19" t="n">
-        <v>823.8482183369862</v>
+        <v>735.2898739361051</v>
       </c>
       <c r="N19" t="n">
-        <v>1076.590321749252</v>
+        <v>988.0319773483712</v>
       </c>
       <c r="O19" t="n">
-        <v>1297.107972491355</v>
+        <v>1208.549628090474</v>
       </c>
       <c r="P19" t="n">
-        <v>1383.986654993186</v>
+        <v>1392.136183618129</v>
       </c>
       <c r="Q19" t="n">
-        <v>1485.257046592878</v>
+        <v>1489.433987456032</v>
       </c>
       <c r="R19" t="n">
-        <v>1489.433987456031</v>
+        <v>1489.433987456032</v>
       </c>
       <c r="S19" t="n">
-        <v>1394.644693658523</v>
+        <v>1394.644693658524</v>
       </c>
       <c r="T19" t="n">
-        <v>1271.11436581538</v>
+        <v>1271.114365815381</v>
       </c>
       <c r="U19" t="n">
-        <v>1080.677378446954</v>
+        <v>1080.677378446956</v>
       </c>
       <c r="V19" t="n">
-        <v>924.6643248149111</v>
+        <v>924.6643248149121</v>
       </c>
       <c r="W19" t="n">
-        <v>733.918589351794</v>
+        <v>733.9185893517949</v>
       </c>
       <c r="X19" t="n">
-        <v>604.6004730276203</v>
+        <v>604.6004730276211</v>
       </c>
       <c r="Y19" t="n">
-        <v>482.4793284579337</v>
+        <v>482.4793284579345</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1708.21280718813</v>
+        <v>1430.888526495821</v>
       </c>
       <c r="C20" t="n">
-        <v>1437.921724821562</v>
+        <v>1160.597444129252</v>
       </c>
       <c r="D20" t="n">
-        <v>1178.327460788655</v>
+        <v>901.0031800963453</v>
       </c>
       <c r="E20" t="n">
-        <v>891.2106427642542</v>
+        <v>613.8863620719445</v>
       </c>
       <c r="F20" t="n">
         <v>578.8961725484902</v>
       </c>
       <c r="G20" t="n">
-        <v>262.2681156656965</v>
+        <v>262.2681156656967</v>
       </c>
       <c r="H20" t="n">
-        <v>61.03076311795246</v>
+        <v>61.03076311795248</v>
       </c>
       <c r="I20" t="n">
-        <v>61.03076311795246</v>
+        <v>61.03076311795248</v>
       </c>
       <c r="J20" t="n">
-        <v>231.0235173512779</v>
+        <v>231.0235173512788</v>
       </c>
       <c r="K20" t="n">
-        <v>536.5371081174089</v>
+        <v>536.5371081174102</v>
       </c>
       <c r="L20" t="n">
-        <v>952.455494680408</v>
+        <v>952.4554946804096</v>
       </c>
       <c r="M20" t="n">
-        <v>1446.91427606938</v>
+        <v>1446.914276069382</v>
       </c>
       <c r="N20" t="n">
-        <v>1953.987725860799</v>
+        <v>1953.987725860802</v>
       </c>
       <c r="O20" t="n">
-        <v>2419.467544341225</v>
+        <v>2419.467544341227</v>
       </c>
       <c r="P20" t="n">
-        <v>2782.242799299102</v>
+        <v>2782.242799299104</v>
       </c>
       <c r="Q20" t="n">
-        <v>3006.499161029602</v>
+        <v>3006.499161029603</v>
       </c>
       <c r="R20" t="n">
-        <v>3051.538155897623</v>
+        <v>3051.538155897624</v>
       </c>
       <c r="S20" t="n">
-        <v>3034.745218337586</v>
+        <v>3034.745218337588</v>
       </c>
       <c r="T20" t="n">
-        <v>2926.445031997751</v>
+        <v>2926.445031997752</v>
       </c>
       <c r="U20" t="n">
-        <v>2816.500654463884</v>
+        <v>2771.567826541302</v>
       </c>
       <c r="V20" t="n">
-        <v>2816.500654463884</v>
+        <v>2539.176373771575</v>
       </c>
       <c r="W20" t="n">
-        <v>2562.403433767613</v>
+        <v>2285.079153075304</v>
       </c>
       <c r="X20" t="n">
-        <v>2287.609110080376</v>
+        <v>2010.284829388067</v>
       </c>
       <c r="Y20" t="n">
-        <v>1996.141212678408</v>
+        <v>1718.816931986099</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>840.7185553954857</v>
+        <v>918.3499072362334</v>
       </c>
       <c r="C21" t="n">
-        <v>666.2655261143587</v>
+        <v>743.8968779551064</v>
       </c>
       <c r="D21" t="n">
-        <v>517.3311164531075</v>
+        <v>594.9624682938552</v>
       </c>
       <c r="E21" t="n">
-        <v>358.093661447652</v>
+        <v>435.7250132883996</v>
       </c>
       <c r="F21" t="n">
-        <v>211.559103474537</v>
+        <v>289.1904553152846</v>
       </c>
       <c r="G21" t="n">
-        <v>75.07452550128573</v>
+        <v>152.7058773420334</v>
       </c>
       <c r="H21" t="n">
-        <v>75.07452550128573</v>
+        <v>61.03076311795248</v>
       </c>
       <c r="I21" t="n">
-        <v>61.03076311795246</v>
+        <v>61.03076311795248</v>
       </c>
       <c r="J21" t="n">
-        <v>143.4594360153766</v>
+        <v>143.4594360153767</v>
       </c>
       <c r="K21" t="n">
-        <v>362.4979917678517</v>
+        <v>362.4979917678519</v>
       </c>
       <c r="L21" t="n">
-        <v>703.3449021689054</v>
+        <v>703.3449021689057</v>
       </c>
       <c r="M21" t="n">
         <v>1120.454038069056</v>
       </c>
       <c r="N21" t="n">
-        <v>1563.01145656526</v>
+        <v>1563.011456565261</v>
       </c>
       <c r="O21" t="n">
-        <v>1945.645238680917</v>
+        <v>1945.645238680918</v>
       </c>
       <c r="P21" t="n">
-        <v>2233.409516175569</v>
+        <v>2233.40951617557</v>
       </c>
       <c r="Q21" t="n">
-        <v>2375.853118516088</v>
+        <v>2375.853118516089</v>
       </c>
       <c r="R21" t="n">
-        <v>2368.166485196822</v>
+        <v>2375.853118516089</v>
       </c>
       <c r="S21" t="n">
-        <v>2335.143636299862</v>
+        <v>2244.158835045286</v>
       </c>
       <c r="T21" t="n">
-        <v>2142.010995172482</v>
+        <v>2051.026193917905</v>
       </c>
       <c r="U21" t="n">
-        <v>1913.935156345985</v>
+        <v>1892.895073612889</v>
       </c>
       <c r="V21" t="n">
-        <v>1678.783048114242</v>
+        <v>1756.41439995499</v>
       </c>
       <c r="W21" t="n">
-        <v>1424.545691386041</v>
+        <v>1502.177043226788</v>
       </c>
       <c r="X21" t="n">
-        <v>1216.694191180508</v>
+        <v>1294.325543021255</v>
       </c>
       <c r="Y21" t="n">
-        <v>1008.933892415554</v>
+        <v>1086.565244256301</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>399.5022982015375</v>
+        <v>399.5022982015382</v>
       </c>
       <c r="C22" t="n">
-        <v>329.2375498474742</v>
+        <v>329.2375498474747</v>
       </c>
       <c r="D22" t="n">
-        <v>277.792345008982</v>
+        <v>277.7923450089825</v>
       </c>
       <c r="E22" t="n">
-        <v>228.5506860004324</v>
+        <v>228.5506860004328</v>
       </c>
       <c r="F22" t="n">
-        <v>180.3321730763656</v>
+        <v>180.3321730763659</v>
       </c>
       <c r="G22" t="n">
-        <v>111.1989281131912</v>
+        <v>111.1989281131914</v>
       </c>
       <c r="H22" t="n">
-        <v>62.74769983508666</v>
+        <v>62.74769983508675</v>
       </c>
       <c r="I22" t="n">
-        <v>61.03076311795246</v>
+        <v>61.03076311795248</v>
       </c>
       <c r="J22" t="n">
-        <v>162.5043816692298</v>
+        <v>65.79650864340579</v>
       </c>
       <c r="K22" t="n">
-        <v>345.92627697183</v>
+        <v>249.218403946006</v>
       </c>
       <c r="L22" t="n">
-        <v>583.5040416211785</v>
+        <v>486.7961685953546</v>
       </c>
       <c r="M22" t="n">
-        <v>831.997746961929</v>
+        <v>735.2898739361051</v>
       </c>
       <c r="N22" t="n">
-        <v>1084.739850374195</v>
+        <v>988.0319773483712</v>
       </c>
       <c r="O22" t="n">
-        <v>1208.549628090474</v>
+        <v>1204.577040328685</v>
       </c>
       <c r="P22" t="n">
-        <v>1392.136183618129</v>
+        <v>1388.16359585634</v>
       </c>
       <c r="Q22" t="n">
-        <v>1485.257046592878</v>
+        <v>1489.433987456032</v>
       </c>
       <c r="R22" t="n">
-        <v>1489.433987456031</v>
+        <v>1489.433987456032</v>
       </c>
       <c r="S22" t="n">
-        <v>1394.644693658523</v>
+        <v>1394.644693658524</v>
       </c>
       <c r="T22" t="n">
-        <v>1271.11436581538</v>
+        <v>1271.114365815381</v>
       </c>
       <c r="U22" t="n">
-        <v>1080.677378446954</v>
+        <v>1080.677378446956</v>
       </c>
       <c r="V22" t="n">
-        <v>924.6643248149111</v>
+        <v>924.6643248149121</v>
       </c>
       <c r="W22" t="n">
-        <v>733.918589351794</v>
+        <v>733.9185893517949</v>
       </c>
       <c r="X22" t="n">
-        <v>604.6004730276203</v>
+        <v>604.6004730276211</v>
       </c>
       <c r="Y22" t="n">
-        <v>482.4793284579337</v>
+        <v>482.4793284579345</v>
       </c>
     </row>
     <row r="23">
@@ -5972,25 +5972,25 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E23" t="n">
-        <v>894.1397680464975</v>
+        <v>894.139768046497</v>
       </c>
       <c r="F23" t="n">
-        <v>581.8252978307332</v>
+        <v>581.825297830733</v>
       </c>
       <c r="G23" t="n">
         <v>265.4242822495727</v>
       </c>
       <c r="H23" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J23" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L23" t="n">
         <v>1040.244834329464</v>
@@ -5999,40 +5999,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R23" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S23" t="n">
-        <v>3313.986587710108</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T23" t="n">
-        <v>3206.680274668173</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U23" t="n">
-        <v>3051.821232515853</v>
+        <v>3051.821232515854</v>
       </c>
       <c r="V23" t="n">
-        <v>2819.429779746126</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W23" t="n">
-        <v>2565.332559049855</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X23" t="n">
-        <v>2290.538235362619</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y23" t="n">
-        <v>1999.070337960651</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="24">
@@ -6060,10 +6060,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J24" t="n">
         <v>160.1893859228007</v>
@@ -6090,10 +6090,10 @@
         <v>2565.05354253334</v>
       </c>
       <c r="R24" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S24" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T24" t="n">
         <v>2242.828302297192</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>402.2593958170914</v>
+        <v>402.259395817092</v>
       </c>
       <c r="C25" t="n">
-        <v>331.9946474630281</v>
+        <v>331.9946474630285</v>
       </c>
       <c r="D25" t="n">
-        <v>280.5494426245359</v>
+        <v>280.5494426245363</v>
       </c>
       <c r="E25" t="n">
-        <v>231.3077836159864</v>
+        <v>231.3077836159866</v>
       </c>
       <c r="F25" t="n">
-        <v>183.0892706919196</v>
+        <v>183.0892706919198</v>
       </c>
       <c r="G25" t="n">
-        <v>114.0578686404821</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H25" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I25" t="n">
-        <v>67.83109325226772</v>
+        <v>67.83109325226766</v>
       </c>
       <c r="J25" t="n">
-        <v>79.65384678970715</v>
+        <v>176.361719815531</v>
       </c>
       <c r="K25" t="n">
-        <v>253.5298502264927</v>
+        <v>371.3804471090253</v>
       </c>
       <c r="L25" t="n">
-        <v>505.947567174674</v>
+        <v>602.6554402004998</v>
       </c>
       <c r="M25" t="n">
-        <v>673.3800484738717</v>
+        <v>866.7957945255215</v>
       </c>
       <c r="N25" t="n">
-        <v>941.3967585295433</v>
+        <v>1038.104631555369</v>
       </c>
       <c r="O25" t="n">
-        <v>1176.022980773557</v>
+        <v>1272.730853799383</v>
       </c>
       <c r="P25" t="n">
-        <v>1371.68185655214</v>
+        <v>1468.389729577965</v>
       </c>
       <c r="Q25" t="n">
-        <v>1481.310496936504</v>
+        <v>1481.310496936506</v>
       </c>
       <c r="R25" t="n">
-        <v>1489.975538818982</v>
+        <v>1489.975538818983</v>
       </c>
       <c r="S25" t="n">
-        <v>1396.961089219652</v>
+        <v>1396.961089219653</v>
       </c>
       <c r="T25" t="n">
-        <v>1273.865908363021</v>
+        <v>1273.865908363022</v>
       </c>
       <c r="U25" t="n">
-        <v>1083.434476062508</v>
+        <v>1083.434476062509</v>
       </c>
       <c r="V25" t="n">
-        <v>927.421422430465</v>
+        <v>927.4214224304659</v>
       </c>
       <c r="W25" t="n">
-        <v>736.6756869673479</v>
+        <v>736.6756869673487</v>
       </c>
       <c r="X25" t="n">
-        <v>607.3575706431742</v>
+        <v>607.3575706431749</v>
       </c>
       <c r="Y25" t="n">
-        <v>485.2364260734876</v>
+        <v>485.2364260734882</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1955.671712554367</v>
+        <v>1955.671712554366</v>
       </c>
       <c r="C26" t="n">
-        <v>1646.478165174436</v>
+        <v>1646.478165174435</v>
       </c>
       <c r="D26" t="n">
         <v>1347.981436128166</v>
@@ -6218,16 +6218,16 @@
         <v>315.4417372667532</v>
       </c>
       <c r="H26" t="n">
-        <v>77.6271064360013</v>
+        <v>77.62710643600128</v>
       </c>
       <c r="I26" t="n">
-        <v>95.04551302703187</v>
+        <v>95.04551302703189</v>
       </c>
       <c r="J26" t="n">
-        <v>342.5042110522845</v>
+        <v>342.5042110522846</v>
       </c>
       <c r="K26" t="n">
-        <v>734.9031518083582</v>
+        <v>734.9031518083583</v>
       </c>
       <c r="L26" t="n">
         <v>1244.516932122994</v>
@@ -6245,22 +6245,22 @@
         <v>3456.892759355125</v>
       </c>
       <c r="Q26" t="n">
-        <v>3763.758688177035</v>
+        <v>3763.758688177034</v>
       </c>
       <c r="R26" t="n">
-        <v>3881.355321800065</v>
+        <v>3881.355321800064</v>
       </c>
       <c r="S26" t="n">
-        <v>3830.833622887641</v>
+        <v>3830.83362288764</v>
       </c>
       <c r="T26" t="n">
-        <v>3684.624844832344</v>
+        <v>3684.624844832343</v>
       </c>
       <c r="U26" t="n">
-        <v>3490.863337666661</v>
+        <v>3490.86333766666</v>
       </c>
       <c r="V26" t="n">
-        <v>3219.569419883571</v>
+        <v>3219.56941988357</v>
       </c>
       <c r="W26" t="n">
         <v>2926.569734173937</v>
@@ -6269,7 +6269,7 @@
         <v>2612.872945473338</v>
       </c>
       <c r="Y26" t="n">
-        <v>2282.502583058008</v>
+        <v>2282.502583058007</v>
       </c>
     </row>
     <row r="27">
@@ -6291,19 +6291,19 @@
         <v>470.0339505370928</v>
       </c>
       <c r="F27" t="n">
-        <v>323.4993925639778</v>
+        <v>323.4993925639777</v>
       </c>
       <c r="G27" t="n">
-        <v>187.1362923965959</v>
+        <v>187.1362923965958</v>
       </c>
       <c r="H27" t="n">
-        <v>96.63439803446337</v>
+        <v>96.63439803446335</v>
       </c>
       <c r="I27" t="n">
-        <v>77.6271064360013</v>
+        <v>77.62710643600128</v>
       </c>
       <c r="J27" t="n">
-        <v>171.3043759266186</v>
+        <v>171.3043759266185</v>
       </c>
       <c r="K27" t="n">
         <v>409.5685749069656</v>
@@ -6333,22 +6333,22 @@
         <v>2446.586292623153</v>
       </c>
       <c r="T27" t="n">
-        <v>2253.94329230101</v>
+        <v>2253.943292301009</v>
       </c>
       <c r="U27" t="n">
         <v>2025.875445435425</v>
       </c>
       <c r="V27" t="n">
-        <v>1790.723337203683</v>
+        <v>1790.723337203682</v>
       </c>
       <c r="W27" t="n">
-        <v>1536.485980475481</v>
+        <v>1536.48598047548</v>
       </c>
       <c r="X27" t="n">
         <v>1328.634480269948</v>
       </c>
       <c r="Y27" t="n">
-        <v>1120.874181504995</v>
+        <v>1120.874181504994</v>
       </c>
     </row>
     <row r="28">
@@ -6358,55 +6358,55 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>684.3458835222592</v>
+        <v>684.3458835222591</v>
       </c>
       <c r="C28" t="n">
-        <v>575.1786701548332</v>
+        <v>575.1786701548331</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8310003029783</v>
+        <v>484.8310003029782</v>
       </c>
       <c r="E28" t="n">
-        <v>396.6868762810661</v>
+        <v>396.686876281066</v>
       </c>
       <c r="F28" t="n">
-        <v>309.5658983436366</v>
+        <v>309.5658983436365</v>
       </c>
       <c r="G28" t="n">
-        <v>201.6320312788365</v>
+        <v>201.6320312788364</v>
       </c>
       <c r="H28" t="n">
         <v>115.1838140571751</v>
       </c>
       <c r="I28" t="n">
-        <v>77.6271064360013</v>
+        <v>77.62710643600128</v>
       </c>
       <c r="J28" t="n">
         <v>181.3293059491641</v>
       </c>
       <c r="K28" t="n">
-        <v>338.2197272830617</v>
+        <v>443.8960559642677</v>
       </c>
       <c r="L28" t="n">
-        <v>713.3590927977851</v>
+        <v>819.0354214789911</v>
       </c>
       <c r="M28" t="n">
-        <v>1116.095705463561</v>
+        <v>1045.047469844416</v>
       </c>
       <c r="N28" t="n">
-        <v>1345.984109559636</v>
+        <v>1328.057137607773</v>
       </c>
       <c r="O28" t="n">
-        <v>1703.893275546277</v>
+        <v>1685.966303594413</v>
       </c>
       <c r="P28" t="n">
-        <v>1995.080343046163</v>
+        <v>1977.1533710943</v>
       </c>
       <c r="Q28" t="n">
         <v>2113.343234313042</v>
       </c>
       <c r="R28" t="n">
-        <v>2083.281746631051</v>
+        <v>2083.28174663105</v>
       </c>
       <c r="S28" t="n">
         <v>1951.364832018358</v>
@@ -6415,19 +6415,19 @@
         <v>1789.367186148365</v>
       </c>
       <c r="U28" t="n">
-        <v>1560.03328883449</v>
+        <v>1560.033288834489</v>
       </c>
       <c r="V28" t="n">
-        <v>1365.117770189084</v>
+        <v>1365.117770189083</v>
       </c>
       <c r="W28" t="n">
         <v>1135.469569712604</v>
       </c>
       <c r="X28" t="n">
-        <v>967.2489883750674</v>
+        <v>967.248988375067</v>
       </c>
       <c r="Y28" t="n">
-        <v>806.2253787920181</v>
+        <v>806.2253787920179</v>
       </c>
     </row>
     <row r="29">
@@ -6446,25 +6446,25 @@
         <v>1347.981436128166</v>
       </c>
       <c r="E29" t="n">
-        <v>1021.962153090403</v>
+        <v>1021.962153090402</v>
       </c>
       <c r="F29" t="n">
-        <v>670.7452178612759</v>
+        <v>670.7452178612757</v>
       </c>
       <c r="G29" t="n">
-        <v>315.4417372667533</v>
+        <v>315.4417372667531</v>
       </c>
       <c r="H29" t="n">
-        <v>77.6271064360013</v>
+        <v>77.62710643600127</v>
       </c>
       <c r="I29" t="n">
-        <v>95.04551302703214</v>
+        <v>95.04551302703183</v>
       </c>
       <c r="J29" t="n">
-        <v>342.5042110522847</v>
+        <v>342.5042110522845</v>
       </c>
       <c r="K29" t="n">
-        <v>734.9031518083584</v>
+        <v>734.9031518083582</v>
       </c>
       <c r="L29" t="n">
         <v>1244.516932122994</v>
@@ -6476,10 +6476,10 @@
         <v>2441.986787986155</v>
       </c>
       <c r="O29" t="n">
-        <v>3003.53882593172</v>
+        <v>3003.538825931719</v>
       </c>
       <c r="P29" t="n">
-        <v>3456.892759355125</v>
+        <v>3456.892759355124</v>
       </c>
       <c r="Q29" t="n">
         <v>3763.758688177034</v>
@@ -6494,10 +6494,10 @@
         <v>3684.624844832343</v>
       </c>
       <c r="U29" t="n">
-        <v>3490.86333766666</v>
+        <v>3490.863337666661</v>
       </c>
       <c r="V29" t="n">
-        <v>3219.56941988357</v>
+        <v>3219.569419883571</v>
       </c>
       <c r="W29" t="n">
         <v>2926.569734173937</v>
@@ -6516,70 +6516,70 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>952.6588444849256</v>
+        <v>952.6588444849262</v>
       </c>
       <c r="C30" t="n">
-        <v>778.2058152037986</v>
+        <v>778.2058152037993</v>
       </c>
       <c r="D30" t="n">
-        <v>629.2714055425473</v>
+        <v>629.2714055425481</v>
       </c>
       <c r="E30" t="n">
-        <v>470.0339505370918</v>
+        <v>470.0339505370926</v>
       </c>
       <c r="F30" t="n">
-        <v>323.4993925639768</v>
+        <v>323.4993925639776</v>
       </c>
       <c r="G30" t="n">
-        <v>187.1362923965949</v>
+        <v>187.1362923965958</v>
       </c>
       <c r="H30" t="n">
-        <v>96.63439803446335</v>
+        <v>96.63439803446333</v>
       </c>
       <c r="I30" t="n">
         <v>77.62710643600128</v>
       </c>
       <c r="J30" t="n">
-        <v>171.3043759266185</v>
+        <v>171.3043759266186</v>
       </c>
       <c r="K30" t="n">
-        <v>409.5685749069656</v>
+        <v>409.5685749069658</v>
       </c>
       <c r="L30" t="n">
-        <v>776.2667352196308</v>
+        <v>776.2667352196311</v>
       </c>
       <c r="M30" t="n">
         <v>1223.543060441947</v>
       </c>
       <c r="N30" t="n">
-        <v>1697.066103996401</v>
+        <v>1697.066103996402</v>
       </c>
       <c r="O30" t="n">
         <v>2108.027383414456</v>
       </c>
       <c r="P30" t="n">
-        <v>2418.526974890558</v>
+        <v>2418.526974890559</v>
       </c>
       <c r="Q30" t="n">
-        <v>2576.168532537158</v>
+        <v>2576.168532537159</v>
       </c>
       <c r="R30" t="n">
-        <v>2576.024179129673</v>
+        <v>2576.024179129674</v>
       </c>
       <c r="S30" t="n">
-        <v>2446.586292623153</v>
+        <v>2446.586292623154</v>
       </c>
       <c r="T30" t="n">
-        <v>2253.943292301009</v>
+        <v>2253.94329230101</v>
       </c>
       <c r="U30" t="n">
         <v>2025.875445435425</v>
       </c>
       <c r="V30" t="n">
-        <v>1790.723337203682</v>
+        <v>1790.723337203683</v>
       </c>
       <c r="W30" t="n">
-        <v>1536.48598047548</v>
+        <v>1536.485980475481</v>
       </c>
       <c r="X30" t="n">
         <v>1328.634480269948</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>684.3458835222592</v>
+        <v>684.3458835222596</v>
       </c>
       <c r="C31" t="n">
-        <v>575.1786701548332</v>
+        <v>575.1786701548334</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8310003029783</v>
+        <v>484.8310003029785</v>
       </c>
       <c r="E31" t="n">
-        <v>396.6868762810661</v>
+        <v>396.6868762810662</v>
       </c>
       <c r="F31" t="n">
-        <v>309.5658983436366</v>
+        <v>309.5658983436367</v>
       </c>
       <c r="G31" t="n">
         <v>201.6320312788365</v>
@@ -6619,37 +6619,37 @@
         <v>77.62710643600128</v>
       </c>
       <c r="J31" t="n">
-        <v>148.029427039668</v>
+        <v>181.3293059491641</v>
       </c>
       <c r="K31" t="n">
-        <v>304.9198483735656</v>
+        <v>443.8960559642677</v>
       </c>
       <c r="L31" t="n">
-        <v>680.059213888289</v>
+        <v>819.0354214789911</v>
       </c>
       <c r="M31" t="n">
-        <v>1082.795826554065</v>
+        <v>1045.047469844416</v>
       </c>
       <c r="N31" t="n">
-        <v>1328.057137607773</v>
+        <v>1328.057137607774</v>
       </c>
       <c r="O31" t="n">
-        <v>1685.966303594414</v>
+        <v>1685.966303594415</v>
       </c>
       <c r="P31" t="n">
-        <v>1977.1533710943</v>
+        <v>1977.153371094301</v>
       </c>
       <c r="Q31" t="n">
-        <v>2113.343234313042</v>
+        <v>2113.343234313043</v>
       </c>
       <c r="R31" t="n">
-        <v>2083.281746631051</v>
+        <v>2083.281746631052</v>
       </c>
       <c r="S31" t="n">
-        <v>1951.364832018358</v>
+        <v>1951.364832018359</v>
       </c>
       <c r="T31" t="n">
-        <v>1789.367186148365</v>
+        <v>1789.367186148366</v>
       </c>
       <c r="U31" t="n">
         <v>1560.03328883449</v>
@@ -6661,10 +6661,10 @@
         <v>1135.469569712604</v>
       </c>
       <c r="X31" t="n">
-        <v>967.2489883750674</v>
+        <v>967.2489883750677</v>
       </c>
       <c r="Y31" t="n">
-        <v>806.2253787920181</v>
+        <v>806.2253787920184</v>
       </c>
     </row>
     <row r="32">
@@ -6695,40 +6695,40 @@
         <v>77.62710643600128</v>
       </c>
       <c r="I32" t="n">
-        <v>95.04551302703187</v>
+        <v>95.0455130270318</v>
       </c>
       <c r="J32" t="n">
-        <v>342.5042110522846</v>
+        <v>342.5042110522844</v>
       </c>
       <c r="K32" t="n">
-        <v>734.9031518083583</v>
+        <v>734.903151808358</v>
       </c>
       <c r="L32" t="n">
         <v>1244.516932122994</v>
       </c>
       <c r="M32" t="n">
-        <v>1836.628403861146</v>
+        <v>1836.628403861145</v>
       </c>
       <c r="N32" t="n">
-        <v>2441.986787986156</v>
+        <v>2441.986787986155</v>
       </c>
       <c r="O32" t="n">
-        <v>3003.53882593172</v>
+        <v>3003.538825931719</v>
       </c>
       <c r="P32" t="n">
-        <v>3456.892759355125</v>
+        <v>3456.892759355124</v>
       </c>
       <c r="Q32" t="n">
-        <v>3763.758688177034</v>
+        <v>3763.758688177033</v>
       </c>
       <c r="R32" t="n">
         <v>3881.355321800064</v>
       </c>
       <c r="S32" t="n">
-        <v>3830.83362288764</v>
+        <v>3830.833622887641</v>
       </c>
       <c r="T32" t="n">
-        <v>3684.624844832343</v>
+        <v>3684.624844832344</v>
       </c>
       <c r="U32" t="n">
         <v>3490.863337666661</v>
@@ -6737,10 +6737,10 @@
         <v>3219.569419883571</v>
       </c>
       <c r="W32" t="n">
-        <v>2926.569734173937</v>
+        <v>2926.569734173938</v>
       </c>
       <c r="X32" t="n">
-        <v>2612.872945473338</v>
+        <v>2612.872945473339</v>
       </c>
       <c r="Y32" t="n">
         <v>2282.502583058008</v>
@@ -6753,49 +6753,49 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>952.6588444849262</v>
+        <v>952.6588444849266</v>
       </c>
       <c r="C33" t="n">
-        <v>778.2058152037993</v>
+        <v>778.2058152037996</v>
       </c>
       <c r="D33" t="n">
-        <v>629.2714055425481</v>
+        <v>629.2714055425483</v>
       </c>
       <c r="E33" t="n">
-        <v>470.0339505370926</v>
+        <v>470.0339505370928</v>
       </c>
       <c r="F33" t="n">
-        <v>323.4993925639776</v>
+        <v>323.4993925639777</v>
       </c>
       <c r="G33" t="n">
         <v>187.1362923965958</v>
       </c>
       <c r="H33" t="n">
-        <v>96.63439803446333</v>
+        <v>96.63439803446335</v>
       </c>
       <c r="I33" t="n">
         <v>77.62710643600128</v>
       </c>
       <c r="J33" t="n">
-        <v>171.3043759266186</v>
+        <v>171.3043759266185</v>
       </c>
       <c r="K33" t="n">
-        <v>409.5685749069658</v>
+        <v>409.5685749069656</v>
       </c>
       <c r="L33" t="n">
-        <v>776.2667352196311</v>
+        <v>776.2667352196308</v>
       </c>
       <c r="M33" t="n">
         <v>1223.543060441947</v>
       </c>
       <c r="N33" t="n">
-        <v>1697.066103996402</v>
+        <v>1697.066103996401</v>
       </c>
       <c r="O33" t="n">
         <v>2108.027383414456</v>
       </c>
       <c r="P33" t="n">
-        <v>2418.526974890559</v>
+        <v>2418.526974890558</v>
       </c>
       <c r="Q33" t="n">
         <v>2576.168532537159</v>
@@ -6822,7 +6822,7 @@
         <v>1328.634480269948</v>
       </c>
       <c r="Y33" t="n">
-        <v>1120.874181504994</v>
+        <v>1120.874181504995</v>
       </c>
     </row>
     <row r="34">
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>684.3458835222593</v>
+        <v>684.3458835222598</v>
       </c>
       <c r="C34" t="n">
-        <v>575.1786701548333</v>
+        <v>575.1786701548336</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8310003029785</v>
+        <v>484.8310003029787</v>
       </c>
       <c r="E34" t="n">
-        <v>396.6868762810662</v>
+        <v>396.6868762810664</v>
       </c>
       <c r="F34" t="n">
-        <v>309.5658983436367</v>
+        <v>309.5658983436368</v>
       </c>
       <c r="G34" t="n">
-        <v>201.6320312788365</v>
+        <v>201.6320312788366</v>
       </c>
       <c r="H34" t="n">
         <v>115.1838140571751</v>
@@ -6859,34 +6859,34 @@
         <v>181.3293059491641</v>
       </c>
       <c r="K34" t="n">
-        <v>443.8960559642677</v>
+        <v>391.6073087495082</v>
       </c>
       <c r="L34" t="n">
-        <v>819.0354214789911</v>
+        <v>766.7466742642315</v>
       </c>
       <c r="M34" t="n">
-        <v>1221.772034144767</v>
+        <v>992.7587226296565</v>
       </c>
       <c r="N34" t="n">
-        <v>1621.759977916859</v>
+        <v>1392.746666401748</v>
       </c>
       <c r="O34" t="n">
-        <v>1819.622801275315</v>
+        <v>1750.655832388389</v>
       </c>
       <c r="P34" t="n">
-        <v>1977.153371094301</v>
+        <v>2041.842899888275</v>
       </c>
       <c r="Q34" t="n">
         <v>2113.343234313043</v>
       </c>
       <c r="R34" t="n">
-        <v>2083.281746631051</v>
+        <v>2083.281746631052</v>
       </c>
       <c r="S34" t="n">
-        <v>1951.364832018358</v>
+        <v>1951.364832018359</v>
       </c>
       <c r="T34" t="n">
-        <v>1789.367186148365</v>
+        <v>1789.367186148366</v>
       </c>
       <c r="U34" t="n">
         <v>1560.03328883449</v>
@@ -6898,10 +6898,10 @@
         <v>1135.469569712604</v>
       </c>
       <c r="X34" t="n">
-        <v>967.2489883750675</v>
+        <v>967.2489883750679</v>
       </c>
       <c r="Y34" t="n">
-        <v>806.2253787920182</v>
+        <v>806.2253787920187</v>
       </c>
     </row>
     <row r="35">
@@ -6920,13 +6920,13 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E35" t="n">
-        <v>894.139768046497</v>
+        <v>894.1397680464972</v>
       </c>
       <c r="F35" t="n">
-        <v>581.8252978307328</v>
+        <v>581.8252978307332</v>
       </c>
       <c r="G35" t="n">
-        <v>265.4242822495729</v>
+        <v>265.4242822495728</v>
       </c>
       <c r="H35" t="n">
         <v>66.51211643218342</v>
@@ -6935,19 +6935,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O35" t="n">
         <v>2623.528026939508</v>
@@ -6965,10 +6965,10 @@
         <v>3313.986587710109</v>
       </c>
       <c r="T35" t="n">
-        <v>3206.680274668174</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U35" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515854</v>
       </c>
       <c r="V35" t="n">
         <v>2819.429779746127</v>
@@ -6990,22 +6990,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387292</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927768</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H36" t="n">
         <v>85.51940803064548</v>
@@ -7041,25 +7041,25 @@
         <v>2564.909189125855</v>
       </c>
       <c r="S36" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T36" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V36" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W36" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="37">
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>402.2593958170925</v>
+        <v>402.2593958170923</v>
       </c>
       <c r="C37" t="n">
-        <v>331.9946474630289</v>
+        <v>331.9946474630288</v>
       </c>
       <c r="D37" t="n">
-        <v>280.5494426245366</v>
+        <v>280.5494426245365</v>
       </c>
       <c r="E37" t="n">
-        <v>231.3077836159869</v>
+        <v>231.3077836159868</v>
       </c>
       <c r="F37" t="n">
         <v>183.0892706919199</v>
@@ -7090,19 +7090,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="I37" t="n">
-        <v>67.83109325226759</v>
+        <v>67.83109325226761</v>
       </c>
       <c r="J37" t="n">
         <v>176.3617198155309</v>
       </c>
       <c r="K37" t="n">
-        <v>274.6725740832013</v>
+        <v>371.3804471090252</v>
       </c>
       <c r="L37" t="n">
-        <v>505.9475671746773</v>
+        <v>602.6554402005007</v>
       </c>
       <c r="M37" t="n">
-        <v>770.087921499699</v>
+        <v>866.7957945255224</v>
       </c>
       <c r="N37" t="n">
         <v>1038.10463155537</v>
@@ -7111,7 +7111,7 @@
         <v>1176.02298077356</v>
       </c>
       <c r="P37" t="n">
-        <v>1371.681856552143</v>
+        <v>1371.681856552142</v>
       </c>
       <c r="Q37" t="n">
         <v>1481.310496936507</v>
@@ -7129,16 +7129,16 @@
         <v>1083.43447606251</v>
       </c>
       <c r="V37" t="n">
-        <v>927.4214224304668</v>
+        <v>927.4214224304665</v>
       </c>
       <c r="W37" t="n">
-        <v>736.6756869673495</v>
+        <v>736.6756869673493</v>
       </c>
       <c r="X37" t="n">
-        <v>607.3575706431756</v>
+        <v>607.3575706431753</v>
       </c>
       <c r="Y37" t="n">
-        <v>485.2364260734888</v>
+        <v>485.2364260734886</v>
       </c>
     </row>
     <row r="38">
@@ -7154,61 +7154,61 @@
         <v>1440.850850103805</v>
       </c>
       <c r="D38" t="n">
-        <v>1181.256586070897</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E38" t="n">
-        <v>894.1397680464966</v>
+        <v>894.1397680464972</v>
       </c>
       <c r="F38" t="n">
-        <v>581.8252978307328</v>
+        <v>581.8252978307332</v>
       </c>
       <c r="G38" t="n">
-        <v>265.4242822495729</v>
+        <v>265.4242822495728</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810543</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329463</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001387</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060169</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q38" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S38" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.986587710108</v>
       </c>
       <c r="T38" t="n">
         <v>3206.680274668174</v>
       </c>
       <c r="U38" t="n">
-        <v>3051.821232515854</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V38" t="n">
-        <v>2819.429779746126</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W38" t="n">
         <v>2565.332559049856</v>
@@ -7217,7 +7217,7 @@
         <v>2290.53823536262</v>
       </c>
       <c r="Y38" t="n">
-        <v>1999.070337960651</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="39">
@@ -7248,7 +7248,7 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J39" t="n">
         <v>160.1893859228007</v>
@@ -7269,34 +7269,34 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q39" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R39" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S39" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T39" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V39" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W39" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="40">
@@ -7306,58 +7306,58 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>402.2593958170925</v>
+        <v>402.2593958170922</v>
       </c>
       <c r="C40" t="n">
-        <v>331.9946474630289</v>
+        <v>331.9946474630287</v>
       </c>
       <c r="D40" t="n">
-        <v>280.5494426245366</v>
+        <v>280.5494426245364</v>
       </c>
       <c r="E40" t="n">
-        <v>231.3077836159869</v>
+        <v>231.3077836159868</v>
       </c>
       <c r="F40" t="n">
-        <v>183.0892706919199</v>
+        <v>183.0892706919198</v>
       </c>
       <c r="G40" t="n">
         <v>114.0578686404822</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I40" t="n">
-        <v>67.83109325226759</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J40" t="n">
-        <v>176.3617198155309</v>
+        <v>78.33486996962283</v>
       </c>
       <c r="K40" t="n">
-        <v>350.2377232523202</v>
+        <v>273.3535972631171</v>
       </c>
       <c r="L40" t="n">
-        <v>602.6554402005013</v>
+        <v>525.7713142112982</v>
       </c>
       <c r="M40" t="n">
-        <v>866.7957945255229</v>
+        <v>789.9116685363199</v>
       </c>
       <c r="N40" t="n">
-        <v>1038.10463155537</v>
+        <v>1057.928378591991</v>
       </c>
       <c r="O40" t="n">
-        <v>1176.02298077356</v>
+        <v>1292.554600836005</v>
       </c>
       <c r="P40" t="n">
-        <v>1371.681856552143</v>
+        <v>1391.505603588764</v>
       </c>
       <c r="Q40" t="n">
-        <v>1481.310496936507</v>
+        <v>1489.975538818984</v>
       </c>
       <c r="R40" t="n">
         <v>1489.975538818984</v>
       </c>
       <c r="S40" t="n">
-        <v>1396.961089219654</v>
+        <v>1396.961089219653</v>
       </c>
       <c r="T40" t="n">
         <v>1273.865908363023</v>
@@ -7366,16 +7366,16 @@
         <v>1083.43447606251</v>
       </c>
       <c r="V40" t="n">
-        <v>927.4214224304668</v>
+        <v>927.4214224304662</v>
       </c>
       <c r="W40" t="n">
-        <v>736.6756869673495</v>
+        <v>736.6756869673491</v>
       </c>
       <c r="X40" t="n">
-        <v>607.3575706431756</v>
+        <v>607.3575706431752</v>
       </c>
       <c r="Y40" t="n">
-        <v>485.2364260734888</v>
+        <v>485.2364260734885</v>
       </c>
     </row>
     <row r="41">
@@ -7394,34 +7394,34 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E41" t="n">
-        <v>894.1397680464968</v>
+        <v>894.139768046497</v>
       </c>
       <c r="F41" t="n">
-        <v>581.8252978307328</v>
+        <v>581.8252978307329</v>
       </c>
       <c r="G41" t="n">
         <v>265.4242822495727</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K41" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M41" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O41" t="n">
         <v>2623.528026939507</v>
@@ -7433,28 +7433,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
         <v>3313.986587710109</v>
       </c>
       <c r="T41" t="n">
-        <v>3206.680274668174</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U41" t="n">
-        <v>3051.821232515854</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V41" t="n">
-        <v>2819.429779746126</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W41" t="n">
-        <v>2565.332559049856</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X41" t="n">
-        <v>2290.538235362619</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y41" t="n">
-        <v>1999.070337960651</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="42">
@@ -7485,7 +7485,7 @@
         <v>85.51940803064433</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J42" t="n">
         <v>160.1893859228007</v>
@@ -7555,40 +7555,40 @@
         <v>231.3077836159866</v>
       </c>
       <c r="F43" t="n">
-        <v>183.0892706919197</v>
+        <v>183.0892706919198</v>
       </c>
       <c r="G43" t="n">
-        <v>114.0578686404821</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I43" t="n">
-        <v>67.83109325226764</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J43" t="n">
-        <v>176.361719815531</v>
+        <v>175.0427429954468</v>
       </c>
       <c r="K43" t="n">
-        <v>274.6725740832014</v>
+        <v>370.0614702889411</v>
       </c>
       <c r="L43" t="n">
-        <v>527.0902910313825</v>
+        <v>622.4791872371222</v>
       </c>
       <c r="M43" t="n">
-        <v>791.2306453564042</v>
+        <v>789.91166853632</v>
       </c>
       <c r="N43" t="n">
-        <v>1059.247355412076</v>
+        <v>961.2205055661675</v>
       </c>
       <c r="O43" t="n">
-        <v>1272.730853799383</v>
+        <v>1184.688022656036</v>
       </c>
       <c r="P43" t="n">
-        <v>1468.389729577965</v>
+        <v>1380.346898434618</v>
       </c>
       <c r="Q43" t="n">
-        <v>1481.310496936506</v>
+        <v>1489.975538818983</v>
       </c>
       <c r="R43" t="n">
         <v>1489.975538818983</v>
@@ -7622,55 +7622,55 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1711.141932470372</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C44" t="n">
-        <v>1440.850850103804</v>
+        <v>1440.850850103805</v>
       </c>
       <c r="D44" t="n">
-        <v>1181.256586070897</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E44" t="n">
-        <v>894.1397680464966</v>
+        <v>894.139768046497</v>
       </c>
       <c r="F44" t="n">
-        <v>581.8252978307328</v>
+        <v>581.8252978307332</v>
       </c>
       <c r="G44" t="n">
         <v>265.4242822495727</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218326</v>
+        <v>66.51211643218417</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K44" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
         <v>3313.986587710109</v>
@@ -7682,16 +7682,16 @@
         <v>3051.821232515854</v>
       </c>
       <c r="V44" t="n">
-        <v>2819.429779746126</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W44" t="n">
-        <v>2565.332559049855</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X44" t="n">
-        <v>2290.538235362619</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y44" t="n">
-        <v>1999.07033796065</v>
+        <v>1999.070337960651</v>
       </c>
     </row>
     <row r="45">
@@ -7719,10 +7719,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J45" t="n">
         <v>160.1893859228007</v>
@@ -7737,16 +7737,16 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N45" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O45" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q45" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R45" t="n">
         <v>2564.909189125856</v>
@@ -7792,40 +7792,40 @@
         <v>231.3077836159866</v>
       </c>
       <c r="F46" t="n">
-        <v>183.0892706919197</v>
+        <v>183.0892706919198</v>
       </c>
       <c r="G46" t="n">
-        <v>114.0578686404821</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I46" t="n">
-        <v>67.83109325226764</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J46" t="n">
-        <v>176.361719815531</v>
+        <v>163.8840378413014</v>
       </c>
       <c r="K46" t="n">
-        <v>350.2377232523189</v>
+        <v>358.9027651347957</v>
       </c>
       <c r="L46" t="n">
-        <v>505.9475671746761</v>
+        <v>611.3204820829769</v>
       </c>
       <c r="M46" t="n">
-        <v>770.0879214996978</v>
+        <v>875.4608364079986</v>
       </c>
       <c r="N46" t="n">
-        <v>1038.104631555369</v>
+        <v>1143.47754646367</v>
       </c>
       <c r="O46" t="n">
-        <v>1176.022980773559</v>
+        <v>1378.103768707684</v>
       </c>
       <c r="P46" t="n">
-        <v>1371.681856552141</v>
+        <v>1477.054771460442</v>
       </c>
       <c r="Q46" t="n">
-        <v>1481.310496936506</v>
+        <v>1489.975538818983</v>
       </c>
       <c r="R46" t="n">
         <v>1489.975538818983</v>
@@ -10033,16 +10033,16 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L28" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M28" t="n">
-        <v>178.5096609094456</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>53.65784208816328</v>
       </c>
       <c r="O28" t="n">
         <v>163.0416663658825</v>
@@ -10051,7 +10051,7 @@
         <v>135.0065633140411</v>
       </c>
       <c r="Q28" t="n">
-        <v>47.23490590112198</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10267,19 +10267,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L31" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M31" t="n">
-        <v>178.5096609094456</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>15.52818884609388</v>
+        <v>53.65784208816473</v>
       </c>
       <c r="O31" t="n">
         <v>163.0416663658825</v>
@@ -10507,25 +10507,25 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K34" t="n">
-        <v>106.7437663446525</v>
+        <v>53.92684996610768</v>
       </c>
       <c r="L34" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M34" t="n">
-        <v>178.5096609094456</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
         <v>171.8177168444618</v>
       </c>
       <c r="O34" t="n">
-        <v>1.37869401418024</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q34" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -23258,25 +23258,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>54.55326530440907</v>
       </c>
       <c r="D11" t="n">
-        <v>316.1696012574539</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>16.88482332122166</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>372.6330561788417</v>
       </c>
       <c r="H11" t="n">
-        <v>258.3962588871427</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>11.72896909311296</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,19 +23306,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>75.79628804931212</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>212.4997132667623</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>289.238818106906</v>
       </c>
       <c r="W11" t="n">
-        <v>310.727528354184</v>
+        <v>310.7275283541841</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>62.44483581683017</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>60.871047214839</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>54.95214767987306</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23473,10 +23473,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>194.6311988954822</v>
       </c>
       <c r="W13" t="n">
-        <v>248.009557973362</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23492,22 +23492,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>344.2204013002516</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>326.7594514077786</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>316.169601257454</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>121.5883904857776</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>372.6330561788416</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23552,13 +23552,13 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>289.2388181069059</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>127.5284711212803</v>
       </c>
       <c r="X14" t="n">
-        <v>331.21766031524</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23656,10 +23656,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>95.39587564665375</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>107.9205222833402</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23668,7 +23668,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>107.1379958601996</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>153.0126807244089</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>157.4417130657825</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23732,13 +23732,13 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>17.55271649280856</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E17" t="n">
-        <v>274.5510378853862</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23978,7 +23978,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>274.5510378853867</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24023,10 +24023,10 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>44.48349964335705</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>230.0675382420298</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24692,7 +24692,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>-1.110223024625157e-13</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -25913,7 +25913,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>7.815970093361102e-13</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>938838.3446702216</v>
+        <v>938838.3446702217</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1057194.870423671</v>
+        <v>1057194.87042367</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1057194.87042367</v>
+        <v>1057194.870423671</v>
       </c>
     </row>
     <row r="12">
@@ -26314,46 +26314,46 @@
         <v>389156.2608905932</v>
       </c>
       <c r="C2" t="n">
-        <v>389156.2608905932</v>
+        <v>389156.2608905931</v>
       </c>
       <c r="D2" t="n">
-        <v>389186.6408179925</v>
+        <v>389186.6408179924</v>
       </c>
       <c r="E2" t="n">
         <v>344309.6882487956</v>
       </c>
       <c r="F2" t="n">
-        <v>344309.6882487958</v>
+        <v>344309.6882487956</v>
       </c>
       <c r="G2" t="n">
         <v>379614.065943088</v>
       </c>
       <c r="H2" t="n">
-        <v>379614.0659430881</v>
+        <v>379614.065943088</v>
       </c>
       <c r="I2" t="n">
         <v>389994.8406855342</v>
       </c>
       <c r="J2" t="n">
+        <v>389994.8406855342</v>
+      </c>
+      <c r="K2" t="n">
+        <v>389994.8406855345</v>
+      </c>
+      <c r="L2" t="n">
+        <v>389994.8406855345</v>
+      </c>
+      <c r="M2" t="n">
         <v>389994.8406855343</v>
       </c>
-      <c r="K2" t="n">
-        <v>389994.8406855343</v>
-      </c>
-      <c r="L2" t="n">
-        <v>389994.8406855344</v>
-      </c>
-      <c r="M2" t="n">
-        <v>389994.8406855342</v>
-      </c>
       <c r="N2" t="n">
-        <v>389994.8406855343</v>
+        <v>389994.8406855345</v>
       </c>
       <c r="O2" t="n">
         <v>389994.8406855342</v>
       </c>
       <c r="P2" t="n">
-        <v>389994.8406855344</v>
+        <v>389994.8406855343</v>
       </c>
     </row>
     <row r="3">
@@ -26369,40 +26369,40 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>171169.7048931389</v>
+        <v>171169.7048931383</v>
       </c>
       <c r="E3" t="n">
-        <v>928626.9828614031</v>
+        <v>928626.9828614038</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.817483540175349e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>47337.02389190084</v>
+        <v>47337.02389190097</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>60307.60726530911</v>
+        <v>60307.60726530877</v>
       </c>
       <c r="J3" t="n">
-        <v>36352.13055698667</v>
+        <v>36352.13055698655</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>47337.02389190082</v>
+        <v>47337.02389190079</v>
       </c>
       <c r="M3" t="n">
-        <v>186300.881329768</v>
+        <v>186300.8813297681</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>5.684341886080801e-11</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>467615.9599317312</v>
       </c>
       <c r="D4" t="n">
-        <v>397952.3823424628</v>
+        <v>397952.3823424631</v>
       </c>
       <c r="E4" t="n">
-        <v>58911.24292805735</v>
+        <v>58911.24292805723</v>
       </c>
       <c r="F4" t="n">
-        <v>58911.24292805735</v>
+        <v>58911.24292805728</v>
       </c>
       <c r="G4" t="n">
-        <v>100421.2759989388</v>
+        <v>100421.2759989387</v>
       </c>
       <c r="H4" t="n">
-        <v>100421.2759989388</v>
+        <v>100421.2759989387</v>
       </c>
       <c r="I4" t="n">
-        <v>93774.13782657712</v>
+        <v>93774.13782657706</v>
       </c>
       <c r="J4" t="n">
-        <v>95033.13778715185</v>
+        <v>95033.13778715188</v>
       </c>
       <c r="K4" t="n">
+        <v>95033.13778715176</v>
+      </c>
+      <c r="L4" t="n">
         <v>95033.13778715182</v>
       </c>
-      <c r="L4" t="n">
-        <v>95033.13778715179</v>
-      </c>
       <c r="M4" t="n">
-        <v>93774.13782657706</v>
+        <v>93774.13782657703</v>
       </c>
       <c r="N4" t="n">
-        <v>93774.137826577</v>
+        <v>93774.13782657703</v>
       </c>
       <c r="O4" t="n">
         <v>93774.13782657706</v>
       </c>
       <c r="P4" t="n">
-        <v>93774.13782657706</v>
+        <v>93774.13782657703</v>
       </c>
     </row>
     <row r="5">
@@ -26473,25 +26473,25 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>37984.72116648073</v>
+        <v>37984.72116648071</v>
       </c>
       <c r="E5" t="n">
         <v>72159.42212422495</v>
       </c>
       <c r="F5" t="n">
-        <v>72159.42212422495</v>
+        <v>72159.42212422499</v>
       </c>
       <c r="G5" t="n">
-        <v>77133.89245118522</v>
+        <v>77133.89245118524</v>
       </c>
       <c r="H5" t="n">
-        <v>77133.89245118522</v>
+        <v>77133.89245118524</v>
       </c>
       <c r="I5" t="n">
-        <v>82518.59730624984</v>
+        <v>82518.59730624985</v>
       </c>
       <c r="J5" t="n">
-        <v>87728.20329125515</v>
+        <v>87728.20329125514</v>
       </c>
       <c r="K5" t="n">
         <v>87728.20329125514</v>
@@ -26500,16 +26500,16 @@
         <v>87728.20329125514</v>
       </c>
       <c r="M5" t="n">
-        <v>82518.59730624984</v>
+        <v>82518.59730624985</v>
       </c>
       <c r="N5" t="n">
         <v>82518.59730624984</v>
       </c>
       <c r="O5" t="n">
-        <v>82518.59730624984</v>
+        <v>82518.59730624985</v>
       </c>
       <c r="P5" t="n">
-        <v>82518.59730624984</v>
+        <v>82518.59730624985</v>
       </c>
     </row>
     <row r="6">
@@ -26519,43 +26519,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-112087.2990411381</v>
+        <v>-112091.7126190062</v>
       </c>
       <c r="C6" t="n">
-        <v>-112087.2990411381</v>
+        <v>-112091.7126190062</v>
       </c>
       <c r="D6" t="n">
-        <v>-217920.16758409</v>
+        <v>-217924.421267603</v>
       </c>
       <c r="E6" t="n">
-        <v>-715387.9596648898</v>
+        <v>-715628.4078356101</v>
       </c>
       <c r="F6" t="n">
-        <v>213239.0231965135</v>
+        <v>212998.5750257935</v>
       </c>
       <c r="G6" t="n">
-        <v>154721.8736010631</v>
+        <v>154667.2379445239</v>
       </c>
       <c r="H6" t="n">
-        <v>202058.8974929641</v>
+        <v>202004.2618364249</v>
       </c>
       <c r="I6" t="n">
-        <v>153394.4982873981</v>
+        <v>153394.4982873985</v>
       </c>
       <c r="J6" t="n">
-        <v>170881.3690501407</v>
+        <v>170881.3690501406</v>
       </c>
       <c r="K6" t="n">
-        <v>207233.4996071274</v>
+        <v>207233.4996071275</v>
       </c>
       <c r="L6" t="n">
-        <v>159896.4757152266</v>
+        <v>159896.4757152267</v>
       </c>
       <c r="M6" t="n">
-        <v>27401.22422293923</v>
+        <v>27401.22422293939</v>
       </c>
       <c r="N6" t="n">
-        <v>213702.1055527074</v>
+        <v>213702.1055527076</v>
       </c>
       <c r="O6" t="n">
         <v>213702.1055527073</v>
@@ -26692,34 +26692,34 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="F2" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322901</v>
       </c>
       <c r="G2" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="H2" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="I2" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="J2" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487608</v>
       </c>
       <c r="K2" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="L2" t="n">
-        <v>59.17127986487602</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="M2" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="N2" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="O2" t="n">
         <v>97.68472022810502</v>
@@ -26741,7 +26741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>199.8679434165473</v>
+        <v>199.8679434165465</v>
       </c>
       <c r="E3" t="n">
         <v>1033.864942049761</v>
@@ -26799,19 +26799,19 @@
         <v>762.8845389744057</v>
       </c>
       <c r="F4" t="n">
-        <v>762.8845389744057</v>
+        <v>762.8845389744062</v>
       </c>
       <c r="G4" t="n">
-        <v>762.8845389744057</v>
+        <v>762.884538974406</v>
       </c>
       <c r="H4" t="n">
-        <v>762.8845389744057</v>
+        <v>762.884538974406</v>
       </c>
       <c r="I4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="J4" t="n">
-        <v>970.3388304500162</v>
+        <v>970.3388304500161</v>
       </c>
       <c r="K4" t="n">
         <v>970.3388304500161</v>
@@ -26823,13 +26823,13 @@
         <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="O4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="O4" t="n">
-        <v>831.4014554022924</v>
-      </c>
       <c r="P4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>59.17127986487606</v>
+        <v>59.171279864876</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,16 +26935,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.17127986487602</v>
+        <v>59.17127986487599</v>
       </c>
       <c r="M2" t="n">
-        <v>38.51344036322893</v>
+        <v>38.51344036322896</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>7.105427357601002e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26963,22 +26963,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>199.8679434165473</v>
+        <v>199.8679434165465</v>
       </c>
       <c r="E3" t="n">
-        <v>833.9969986332136</v>
+        <v>833.9969986332146</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>55.91175854353719</v>
+        <v>55.91175854353673</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27021,7 +27021,7 @@
         <v>762.8845389744057</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>68.5169164278866</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9373750477239</v>
+        <v>138.9373750477234</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>59.17127986487606</v>
+        <v>59.171279864876</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27267,7 +27267,7 @@
         <v>762.8845389744057</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27871,34 +27871,34 @@
         <v>331.2460681438487</v>
       </c>
       <c r="I8" t="n">
-        <v>179.4993714254152</v>
+        <v>179.4993714254153</v>
       </c>
       <c r="J8" t="n">
-        <v>112.8507613606554</v>
+        <v>112.8507613606557</v>
       </c>
       <c r="K8" t="n">
-        <v>117.8830092062966</v>
+        <v>117.883009206297</v>
       </c>
       <c r="L8" t="n">
-        <v>108.9697899219197</v>
+        <v>108.9697899219202</v>
       </c>
       <c r="M8" t="n">
-        <v>89.26055676720918</v>
+        <v>89.26055676720972</v>
       </c>
       <c r="N8" t="n">
-        <v>86.04447339087</v>
+        <v>86.04447339087056</v>
       </c>
       <c r="O8" t="n">
-        <v>94.71931714500417</v>
+        <v>94.71931714500471</v>
       </c>
       <c r="P8" t="n">
-        <v>115.6902415915358</v>
+        <v>115.6902415915362</v>
       </c>
       <c r="Q8" t="n">
-        <v>135.5378933935503</v>
+        <v>135.5378933935506</v>
       </c>
       <c r="R8" t="n">
-        <v>165.113358113068</v>
+        <v>165.1133581130682</v>
       </c>
       <c r="S8" t="n">
         <v>190.7105589908501</v>
@@ -27950,34 +27950,34 @@
         <v>108.0834705440131</v>
       </c>
       <c r="I9" t="n">
-        <v>84.72083890735946</v>
+        <v>84.72083890735952</v>
       </c>
       <c r="J9" t="n">
-        <v>86.22106658047946</v>
+        <v>86.22106658047963</v>
       </c>
       <c r="K9" t="n">
-        <v>68.4212684765569</v>
+        <v>68.42126847655716</v>
       </c>
       <c r="L9" t="n">
-        <v>45.21039356443858</v>
+        <v>45.21039356443893</v>
       </c>
       <c r="M9" t="n">
-        <v>33.20600476000006</v>
+        <v>33.20600476000048</v>
       </c>
       <c r="N9" t="n">
-        <v>19.53068211486313</v>
+        <v>19.53068211486357</v>
       </c>
       <c r="O9" t="n">
-        <v>40.31099608107236</v>
+        <v>40.31099608107274</v>
       </c>
       <c r="P9" t="n">
-        <v>51.88147797593744</v>
+        <v>51.88147797593776</v>
       </c>
       <c r="Q9" t="n">
-        <v>85.10482479172724</v>
+        <v>85.10482479172745</v>
       </c>
       <c r="R9" t="n">
-        <v>118.9877057846749</v>
+        <v>118.987705784675</v>
       </c>
       <c r="S9" t="n">
         <v>163.697881100356</v>
@@ -28032,31 +28032,31 @@
         <v>144.6117346514888</v>
       </c>
       <c r="J10" t="n">
-        <v>101.5138969156176</v>
+        <v>101.5138969156177</v>
       </c>
       <c r="K10" t="n">
-        <v>87.13928576293745</v>
+        <v>87.13928576293762</v>
       </c>
       <c r="L10" t="n">
-        <v>81.30040830362822</v>
+        <v>81.30040830362842</v>
       </c>
       <c r="M10" t="n">
-        <v>82.42868643397351</v>
+        <v>82.42868643397372</v>
       </c>
       <c r="N10" t="n">
-        <v>72.53182165325381</v>
+        <v>72.53182165325401</v>
       </c>
       <c r="O10" t="n">
-        <v>87.51314854626118</v>
+        <v>87.51314854626138</v>
       </c>
       <c r="P10" t="n">
-        <v>94.13713324236494</v>
+        <v>94.1371332423651</v>
       </c>
       <c r="Q10" t="n">
-        <v>121.3249421735472</v>
+        <v>121.3249421735473</v>
       </c>
       <c r="R10" t="n">
-        <v>161.0877053421163</v>
+        <v>161.0877053421164</v>
       </c>
       <c r="S10" t="n">
         <v>217.7355021758326</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="C11" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="D11" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="E11" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="F11" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="G11" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="H11" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="I11" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="T11" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="U11" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="V11" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="W11" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="X11" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="Y11" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322894</v>
       </c>
     </row>
     <row r="12">
@@ -28166,16 +28166,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>38.51344036322905</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>38.51344036322905</v>
+        <v>12.8762301114559</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -28184,10 +28184,10 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="I12" t="n">
-        <v>22.95785363122053</v>
+        <v>22.9578536312205</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28214,16 +28214,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>7.609766986073197</v>
+        <v>7.609766986073168</v>
       </c>
       <c r="S12" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="T12" t="n">
-        <v>12.87623011145632</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="C13" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="D13" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="E13" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="F13" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="G13" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="H13" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="I13" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="J13" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="K13" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="L13" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="M13" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="N13" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="O13" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="P13" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="Q13" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="R13" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="S13" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="T13" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="U13" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="V13" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="W13" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="X13" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="Y13" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322894</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322901</v>
       </c>
       <c r="C14" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322901</v>
       </c>
       <c r="D14" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322901</v>
       </c>
       <c r="E14" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322901</v>
       </c>
       <c r="F14" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322901</v>
       </c>
       <c r="G14" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322901</v>
       </c>
       <c r="H14" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322901</v>
       </c>
       <c r="I14" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322901</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322901</v>
       </c>
       <c r="T14" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322901</v>
       </c>
       <c r="U14" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322901</v>
       </c>
       <c r="V14" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322901</v>
       </c>
       <c r="W14" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322901</v>
       </c>
       <c r="X14" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322901</v>
       </c>
       <c r="Y14" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322901</v>
       </c>
     </row>
     <row r="15">
@@ -28403,28 +28403,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>38.51344036322905</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322901</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>38.51344036322901</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>38.51344036322905</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>38.51344036322901</v>
       </c>
       <c r="I15" t="n">
-        <v>22.95785363122053</v>
+        <v>22.9578536312205</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28451,13 +28451,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>7.609766986073197</v>
+        <v>7.609766986073168</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>38.51344036322901</v>
       </c>
       <c r="T15" t="n">
-        <v>38.51344036322905</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -28469,10 +28469,10 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>12.87623011145567</v>
       </c>
       <c r="Y15" t="n">
-        <v>12.87623011145618</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322901</v>
       </c>
       <c r="C16" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322901</v>
       </c>
       <c r="D16" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322901</v>
       </c>
       <c r="E16" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322901</v>
       </c>
       <c r="F16" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322901</v>
       </c>
       <c r="G16" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322901</v>
       </c>
       <c r="H16" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322901</v>
       </c>
       <c r="I16" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322901</v>
       </c>
       <c r="J16" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322901</v>
       </c>
       <c r="K16" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322901</v>
       </c>
       <c r="L16" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322901</v>
       </c>
       <c r="M16" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322901</v>
       </c>
       <c r="N16" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322901</v>
       </c>
       <c r="O16" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322901</v>
       </c>
       <c r="P16" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322901</v>
       </c>
       <c r="Q16" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322901</v>
       </c>
       <c r="R16" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322901</v>
       </c>
       <c r="S16" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322901</v>
       </c>
       <c r="T16" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322901</v>
       </c>
       <c r="U16" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322901</v>
       </c>
       <c r="V16" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322901</v>
       </c>
       <c r="W16" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322901</v>
       </c>
       <c r="X16" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322901</v>
       </c>
       <c r="Y16" t="n">
-        <v>38.51344036322905</v>
+        <v>38.51344036322901</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="C17" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="D17" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="E17" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="F17" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="G17" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="H17" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="I17" t="n">
-        <v>50.24240945634193</v>
+        <v>50.24240945634187</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="T17" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="U17" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="V17" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="W17" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="X17" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="Y17" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810501</v>
       </c>
     </row>
     <row r="18">
@@ -28655,13 +28655,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>97.68472022810511</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>69.2452713362669</v>
+        <v>90.75836308184009</v>
       </c>
       <c r="I18" t="n">
-        <v>22.95785363122053</v>
+        <v>22.95785363122049</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28688,7 +28688,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>7.609766986073197</v>
+        <v>7.60976698607314</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -28706,7 +28706,7 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>76.17162848253088</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="C19" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="D19" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="E19" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="F19" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="G19" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="H19" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="I19" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="J19" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="K19" t="n">
-        <v>97.68472022810511</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>89.45287313220325</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="M19" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="N19" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="O19" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="Q19" t="n">
-        <v>97.68472022810511</v>
+        <v>93.67200531720748</v>
       </c>
       <c r="R19" t="n">
-        <v>97.68472022810511</v>
+        <v>93.46558804310197</v>
       </c>
       <c r="S19" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="T19" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="U19" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="V19" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="W19" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="X19" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810501</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="C20" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="D20" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="E20" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="F20" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="G20" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="H20" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="I20" t="n">
-        <v>50.24240945634193</v>
+        <v>50.24240945634187</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="T20" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="U20" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="V20" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="W20" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="X20" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="Y20" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810501</v>
       </c>
     </row>
     <row r="21">
@@ -28895,10 +28895,10 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>90.7583630818401</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>9.05452887172059</v>
+        <v>22.95785363122049</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28925,19 +28925,19 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>7.60976698607314</v>
       </c>
       <c r="S21" t="n">
-        <v>97.68472022810511</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>69.24527133626623</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="C22" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="D22" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="E22" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="F22" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="G22" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="H22" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="I22" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="J22" t="n">
-        <v>97.68472022810511</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="L22" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="M22" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="N22" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>93.67200531720732</v>
       </c>
       <c r="P22" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="Q22" t="n">
-        <v>89.45287313220334</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="R22" t="n">
-        <v>97.68472022810511</v>
+        <v>93.46558804310197</v>
       </c>
       <c r="S22" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="T22" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="U22" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="V22" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="W22" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="X22" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810501</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C23" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D23" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E23" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F23" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G23" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H23" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292598</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="T23" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="U23" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="V23" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W23" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X23" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y23" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="24">
@@ -29162,13 +29162,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>1.051603248924948e-12</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C25" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D25" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E25" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F25" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G25" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H25" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I25" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="K25" t="n">
-        <v>76.32843350415678</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="L25" t="n">
-        <v>97.68472022810511</v>
+        <v>76.32843350415885</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="N25" t="n">
-        <v>97.68472022810511</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="P25" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Q25" t="n">
-        <v>97.68472022810511</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="S25" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="T25" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="U25" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="V25" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W25" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X25" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="26">
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487608</v>
       </c>
       <c r="C26" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487608</v>
       </c>
       <c r="D26" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487608</v>
       </c>
       <c r="E26" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487608</v>
       </c>
       <c r="F26" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487608</v>
       </c>
       <c r="G26" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487608</v>
       </c>
       <c r="H26" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487608</v>
       </c>
       <c r="I26" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487608</v>
       </c>
       <c r="J26" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487608</v>
       </c>
       <c r="K26" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487608</v>
       </c>
       <c r="L26" t="n">
-        <v>59.17127986487606</v>
+        <v>59.171279864876</v>
       </c>
       <c r="M26" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487608</v>
       </c>
       <c r="N26" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487608</v>
       </c>
       <c r="O26" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487608</v>
       </c>
       <c r="P26" t="n">
-        <v>59.17127986487645</v>
+        <v>59.17127986487608</v>
       </c>
       <c r="Q26" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487608</v>
       </c>
       <c r="R26" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487608</v>
       </c>
       <c r="S26" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487608</v>
       </c>
       <c r="T26" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487608</v>
       </c>
       <c r="U26" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487608</v>
       </c>
       <c r="V26" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487608</v>
       </c>
       <c r="W26" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487608</v>
       </c>
       <c r="X26" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487608</v>
       </c>
       <c r="Y26" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487608</v>
       </c>
     </row>
     <row r="27">
@@ -29351,7 +29351,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>9.663381206337363e-13</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -29405,7 +29405,7 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>1.051603248924948e-12</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487608</v>
       </c>
       <c r="C28" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487608</v>
       </c>
       <c r="D28" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487608</v>
       </c>
       <c r="E28" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487608</v>
       </c>
       <c r="F28" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487608</v>
       </c>
       <c r="G28" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487608</v>
       </c>
       <c r="H28" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487608</v>
       </c>
       <c r="I28" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487608</v>
       </c>
       <c r="J28" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487608</v>
       </c>
       <c r="K28" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487608</v>
       </c>
       <c r="L28" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487608</v>
       </c>
       <c r="M28" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487608</v>
       </c>
       <c r="N28" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487608</v>
       </c>
       <c r="O28" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487608</v>
       </c>
       <c r="P28" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487608</v>
       </c>
       <c r="Q28" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487608</v>
       </c>
       <c r="R28" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487608</v>
       </c>
       <c r="S28" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487608</v>
       </c>
       <c r="T28" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487608</v>
       </c>
       <c r="U28" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487608</v>
       </c>
       <c r="V28" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487608</v>
       </c>
       <c r="W28" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487608</v>
       </c>
       <c r="X28" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487608</v>
       </c>
       <c r="Y28" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487608</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="C29" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="D29" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="E29" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="F29" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="G29" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="H29" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="I29" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="J29" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="K29" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="L29" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="M29" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="N29" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="O29" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="P29" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="Q29" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="R29" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="S29" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="T29" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="U29" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="V29" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="W29" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="X29" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="Y29" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
     </row>
     <row r="30">
@@ -29606,7 +29606,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="C31" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="D31" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="E31" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="F31" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="G31" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="H31" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="I31" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="J31" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="K31" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="L31" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="M31" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="N31" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="O31" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="P31" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="Q31" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="R31" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="S31" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="T31" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="U31" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="V31" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="W31" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="X31" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="Y31" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
     </row>
     <row r="32">
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>59.17127986487602</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="C32" t="n">
-        <v>59.17127986487602</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="D32" t="n">
-        <v>59.17127986487602</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="E32" t="n">
-        <v>59.17127986487602</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="F32" t="n">
-        <v>59.17127986487602</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="G32" t="n">
-        <v>59.17127986487602</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="H32" t="n">
-        <v>59.17127986487602</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="I32" t="n">
-        <v>59.17127986487602</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="J32" t="n">
-        <v>59.17127986487602</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="K32" t="n">
-        <v>59.17127986487602</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="L32" t="n">
-        <v>59.17127986487602</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="M32" t="n">
-        <v>59.17127986487602</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="N32" t="n">
-        <v>59.17127986487602</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="O32" t="n">
-        <v>59.17127986487602</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="P32" t="n">
-        <v>59.17127986487602</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="Q32" t="n">
-        <v>59.17127986487602</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="R32" t="n">
-        <v>59.17127986487602</v>
+        <v>59.17127986487711</v>
       </c>
       <c r="S32" t="n">
-        <v>59.17127986487602</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="T32" t="n">
-        <v>59.17127986487602</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="U32" t="n">
-        <v>59.17127986487602</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="V32" t="n">
-        <v>59.17127986487602</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="W32" t="n">
-        <v>59.17127986487602</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="X32" t="n">
-        <v>59.17127986487602</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="Y32" t="n">
-        <v>59.17127986487602</v>
+        <v>59.17127986487601</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>59.17127986487602</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="C34" t="n">
-        <v>59.17127986487602</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="D34" t="n">
-        <v>59.17127986487602</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="E34" t="n">
-        <v>59.17127986487602</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="F34" t="n">
-        <v>59.17127986487602</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="G34" t="n">
-        <v>59.17127986487602</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="H34" t="n">
-        <v>59.17127986487602</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="I34" t="n">
-        <v>59.17127986487602</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="J34" t="n">
-        <v>59.17127986487602</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="K34" t="n">
-        <v>59.17127986487602</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="L34" t="n">
-        <v>59.17127986487602</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="M34" t="n">
-        <v>59.17127986487602</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="N34" t="n">
-        <v>59.17127986487602</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="O34" t="n">
-        <v>59.17127986487602</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="P34" t="n">
-        <v>59.17127986487602</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="Q34" t="n">
-        <v>59.17127986487602</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="R34" t="n">
-        <v>59.17127986487602</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="S34" t="n">
-        <v>59.17127986487602</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="T34" t="n">
-        <v>59.17127986487602</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="U34" t="n">
-        <v>59.17127986487602</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="V34" t="n">
-        <v>59.17127986487602</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="W34" t="n">
-        <v>59.17127986487602</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="X34" t="n">
-        <v>59.17127986487602</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="Y34" t="n">
-        <v>59.17127986487602</v>
+        <v>59.17127986487601</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292598</v>
@@ -30022,7 +30022,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
     </row>
     <row r="36">
@@ -30080,7 +30080,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -30113,7 +30113,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>7.389644451905042e-13</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="C37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="D37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="E37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="F37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="G37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="H37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="I37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="J37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="L37" t="n">
-        <v>76.32843350416047</v>
+        <v>76.32843350415993</v>
       </c>
       <c r="M37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="N37" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="Q37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="R37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="S37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="T37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="U37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="V37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="W37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="X37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292598</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
     </row>
     <row r="39">
@@ -30299,7 +30299,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>1.165290086646564e-12</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="C40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="D40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="E40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="F40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="G40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="H40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="I40" t="n">
-        <v>97.68472022810495</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J40" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>76.32843350416053</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="L40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="M40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="P40" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>97.68472022810495</v>
+        <v>86.41330088048412</v>
       </c>
       <c r="R40" t="n">
-        <v>97.68472022810495</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="T40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="U40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="V40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="W40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="X40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
     </row>
     <row r="41">
@@ -30557,7 +30557,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.119104808822158e-12</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -30636,34 +30636,34 @@
         <v>97.68472022810502</v>
       </c>
       <c r="I43" t="n">
-        <v>97.68472022810502</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J43" t="n">
         <v>97.68472022810502</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="L43" t="n">
         <v>97.68472022810502</v>
       </c>
       <c r="M43" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>76.32843350415891</v>
+        <v>86.41330088048352</v>
       </c>
       <c r="P43" t="n">
         <v>97.68472022810502</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="R43" t="n">
-        <v>97.68472022810502</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S43" t="n">
         <v>97.68472022810502</v>
@@ -30821,7 +30821,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -30873,16 +30873,16 @@
         <v>97.68472022810502</v>
       </c>
       <c r="I46" t="n">
+        <v>96.35242040983812</v>
+      </c>
+      <c r="J46" t="n">
+        <v>86.41330088048343</v>
+      </c>
+      <c r="K46" t="n">
         <v>97.68472022810502</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>97.68472022810502</v>
-      </c>
-      <c r="K46" t="n">
-        <v>76.32843350415914</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
       </c>
       <c r="M46" t="n">
         <v>97.68472022810502</v>
@@ -30891,16 +30891,16 @@
         <v>97.68472022810502</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="P46" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>97.68472022810502</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S46" t="n">
         <v>97.68472022810502</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.8034892197650136</v>
+        <v>0.8034892197650105</v>
       </c>
       <c r="H8" t="n">
-        <v>8.228733971918448</v>
+        <v>8.228733971918416</v>
       </c>
       <c r="I8" t="n">
-        <v>30.97651814499072</v>
+        <v>30.9765181449906</v>
       </c>
       <c r="J8" t="n">
-        <v>68.19514316603089</v>
+        <v>68.19514316603063</v>
       </c>
       <c r="K8" t="n">
-        <v>102.2068418386839</v>
+        <v>102.2068418386835</v>
       </c>
       <c r="L8" t="n">
-        <v>126.7966250480675</v>
+        <v>126.796625048067</v>
       </c>
       <c r="M8" t="n">
-        <v>141.0856764600636</v>
+        <v>141.085676460063</v>
       </c>
       <c r="N8" t="n">
-        <v>143.3685902057209</v>
+        <v>143.3685902057204</v>
       </c>
       <c r="O8" t="n">
-        <v>135.3788942766826</v>
+        <v>135.378894276682</v>
       </c>
       <c r="P8" t="n">
-        <v>115.5427541637337</v>
+        <v>115.5427541637333</v>
       </c>
       <c r="Q8" t="n">
-        <v>86.76779648089918</v>
+        <v>86.76779648089884</v>
       </c>
       <c r="R8" t="n">
-        <v>50.47217970106408</v>
+        <v>50.47217970106389</v>
       </c>
       <c r="S8" t="n">
-        <v>18.30951059539527</v>
+        <v>18.3095105953952</v>
       </c>
       <c r="T8" t="n">
-        <v>3.517274059521349</v>
+        <v>3.517274059521335</v>
       </c>
       <c r="U8" t="n">
-        <v>0.06427913758120107</v>
+        <v>0.06427913758120082</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.4299046330091772</v>
+        <v>0.4299046330091755</v>
       </c>
       <c r="H9" t="n">
-        <v>4.15197369248337</v>
+        <v>4.151973692483354</v>
       </c>
       <c r="I9" t="n">
-        <v>14.80154109264053</v>
+        <v>14.80154109264048</v>
       </c>
       <c r="J9" t="n">
-        <v>40.61656008618723</v>
+        <v>40.61656008618707</v>
       </c>
       <c r="K9" t="n">
-        <v>69.42017049780209</v>
+        <v>69.42017049780183</v>
       </c>
       <c r="L9" t="n">
-        <v>93.34398621543561</v>
+        <v>93.34398621543525</v>
       </c>
       <c r="M9" t="n">
-        <v>108.9280291620183</v>
+        <v>108.9280291620178</v>
       </c>
       <c r="N9" t="n">
-        <v>111.8110299684702</v>
+        <v>111.8110299684697</v>
       </c>
       <c r="O9" t="n">
-        <v>102.2852483633721</v>
+        <v>102.2852483633717</v>
       </c>
       <c r="P9" t="n">
-        <v>82.0929294383928</v>
+        <v>82.09292943839249</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.87694929429428</v>
+        <v>54.87694929429406</v>
       </c>
       <c r="R9" t="n">
-        <v>26.6917981792891</v>
+        <v>26.691798179289</v>
       </c>
       <c r="S9" t="n">
-        <v>7.985290003481861</v>
+        <v>7.98529000348183</v>
       </c>
       <c r="T9" t="n">
-        <v>1.732817358488744</v>
+        <v>1.732817358488738</v>
       </c>
       <c r="U9" t="n">
-        <v>0.02828319954007746</v>
+        <v>0.02828319954007735</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3604176028822983</v>
+        <v>0.360417602882297</v>
       </c>
       <c r="H10" t="n">
-        <v>3.204440141989891</v>
+        <v>3.204440141989879</v>
       </c>
       <c r="I10" t="n">
-        <v>10.83874027576949</v>
+        <v>10.83874027576944</v>
       </c>
       <c r="J10" t="n">
-        <v>25.48152452377849</v>
+        <v>25.48152452377839</v>
       </c>
       <c r="K10" t="n">
-        <v>41.87397240759793</v>
+        <v>41.87397240759777</v>
       </c>
       <c r="L10" t="n">
-        <v>53.58426797761008</v>
+        <v>53.58426797760987</v>
       </c>
       <c r="M10" t="n">
-        <v>56.49709751363154</v>
+        <v>56.49709751363132</v>
       </c>
       <c r="N10" t="n">
-        <v>55.15372281197939</v>
+        <v>55.15372281197917</v>
       </c>
       <c r="O10" t="n">
-        <v>50.94338990558161</v>
+        <v>50.94338990558141</v>
       </c>
       <c r="P10" t="n">
-        <v>43.59087080678268</v>
+        <v>43.59087080678252</v>
       </c>
       <c r="Q10" t="n">
-        <v>30.18005945589864</v>
+        <v>30.18005945589852</v>
       </c>
       <c r="R10" t="n">
-        <v>16.20568603505316</v>
+        <v>16.20568603505309</v>
       </c>
       <c r="S10" t="n">
-        <v>6.281095861139688</v>
+        <v>6.281095861139664</v>
       </c>
       <c r="T10" t="n">
-        <v>1.539966121406183</v>
+        <v>1.539966121406178</v>
       </c>
       <c r="U10" t="n">
-        <v>0.01965914197539811</v>
+        <v>0.01965914197539804</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.156240973064362</v>
+        <v>4.156240973064363</v>
       </c>
       <c r="H11" t="n">
-        <v>42.56510286539541</v>
+        <v>42.56510286539542</v>
       </c>
       <c r="I11" t="n">
         <v>160.233480114064</v>
       </c>
       <c r="J11" t="n">
-        <v>352.7557572876217</v>
+        <v>352.7557572876218</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6894376774363</v>
+        <v>528.6894376774364</v>
       </c>
       <c r="L11" t="n">
-        <v>655.8859973568549</v>
+        <v>655.885997356855</v>
       </c>
       <c r="M11" t="n">
-        <v>729.7995477615882</v>
+        <v>729.7995477615884</v>
       </c>
       <c r="N11" t="n">
-        <v>741.6084674263074</v>
+        <v>741.6084674263076</v>
       </c>
       <c r="O11" t="n">
-        <v>700.2798462503986</v>
+        <v>700.2798462503988</v>
       </c>
       <c r="P11" t="n">
-        <v>597.6726472278721</v>
+        <v>597.6726472278722</v>
       </c>
       <c r="Q11" t="n">
-        <v>448.8272673800045</v>
+        <v>448.8272673800046</v>
       </c>
       <c r="R11" t="n">
         <v>261.0794720242545</v>
       </c>
       <c r="S11" t="n">
-        <v>94.71034117370425</v>
+        <v>94.71034117370426</v>
       </c>
       <c r="T11" t="n">
         <v>18.19394485958926</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3324992778451489</v>
+        <v>0.332499277845149</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,7 +31835,7 @@
         <v>21.47708115465636</v>
       </c>
       <c r="I12" t="n">
-        <v>76.56452636877947</v>
+        <v>76.5645263687795</v>
       </c>
       <c r="J12" t="n">
         <v>210.0989124216406</v>
@@ -31844,16 +31844,16 @@
         <v>359.0925053910005</v>
       </c>
       <c r="L12" t="n">
-        <v>482.844188265787</v>
+        <v>482.8441882657871</v>
       </c>
       <c r="M12" t="n">
-        <v>563.4563934171196</v>
+        <v>563.4563934171198</v>
       </c>
       <c r="N12" t="n">
-        <v>578.3694075340451</v>
+        <v>578.3694075340452</v>
       </c>
       <c r="O12" t="n">
-        <v>529.0950142582394</v>
+        <v>529.0950142582395</v>
       </c>
       <c r="P12" t="n">
         <v>424.6453947826651</v>
@@ -31865,10 +31865,10 @@
         <v>138.0697369778908</v>
       </c>
       <c r="S12" t="n">
-        <v>41.30583046774278</v>
+        <v>41.30583046774279</v>
       </c>
       <c r="T12" t="n">
-        <v>8.963413978714433</v>
+        <v>8.963413978714435</v>
       </c>
       <c r="U12" t="n">
         <v>0.1463016427428908</v>
@@ -31914,25 +31914,25 @@
         <v>16.57573628401093</v>
       </c>
       <c r="I13" t="n">
-        <v>56.06598734919032</v>
+        <v>56.06598734919034</v>
       </c>
       <c r="J13" t="n">
         <v>131.8093058085408</v>
       </c>
       <c r="K13" t="n">
-        <v>216.6031796622285</v>
+        <v>216.6031796622286</v>
       </c>
       <c r="L13" t="n">
         <v>277.1774961029802</v>
       </c>
       <c r="M13" t="n">
-        <v>292.2448064879348</v>
+        <v>292.2448064879349</v>
       </c>
       <c r="N13" t="n">
         <v>285.2958781889121</v>
       </c>
       <c r="O13" t="n">
-        <v>263.5169199834375</v>
+        <v>263.5169199834376</v>
       </c>
       <c r="P13" t="n">
         <v>225.484249000492</v>
@@ -31941,13 +31941,13 @@
         <v>156.1136062495139</v>
       </c>
       <c r="R13" t="n">
-        <v>83.82780333406747</v>
+        <v>83.82780333406748</v>
       </c>
       <c r="S13" t="n">
-        <v>32.49047694933427</v>
+        <v>32.49047694933428</v>
       </c>
       <c r="T13" t="n">
-        <v>7.965844635465368</v>
+        <v>7.96584463546537</v>
       </c>
       <c r="U13" t="n">
         <v>0.1016916336442389</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.156240973064362</v>
+        <v>4.156240973064363</v>
       </c>
       <c r="H14" t="n">
-        <v>42.56510286539541</v>
+        <v>42.56510286539542</v>
       </c>
       <c r="I14" t="n">
         <v>160.233480114064</v>
       </c>
       <c r="J14" t="n">
-        <v>352.7557572876217</v>
+        <v>352.7557572876218</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6894376774363</v>
+        <v>528.6894376774364</v>
       </c>
       <c r="L14" t="n">
-        <v>655.8859973568549</v>
+        <v>655.885997356855</v>
       </c>
       <c r="M14" t="n">
-        <v>729.7995477615882</v>
+        <v>729.7995477615884</v>
       </c>
       <c r="N14" t="n">
-        <v>741.6084674263074</v>
+        <v>741.6084674263076</v>
       </c>
       <c r="O14" t="n">
-        <v>700.2798462503986</v>
+        <v>700.2798462503988</v>
       </c>
       <c r="P14" t="n">
-        <v>597.6726472278721</v>
+        <v>597.6726472278722</v>
       </c>
       <c r="Q14" t="n">
-        <v>448.8272673800045</v>
+        <v>448.8272673800046</v>
       </c>
       <c r="R14" t="n">
         <v>261.0794720242545</v>
       </c>
       <c r="S14" t="n">
-        <v>94.71034117370425</v>
+        <v>94.71034117370426</v>
       </c>
       <c r="T14" t="n">
         <v>18.19394485958926</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3324992778451489</v>
+        <v>0.332499277845149</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,7 +32072,7 @@
         <v>21.47708115465636</v>
       </c>
       <c r="I15" t="n">
-        <v>76.56452636877947</v>
+        <v>76.5645263687795</v>
       </c>
       <c r="J15" t="n">
         <v>210.0989124216406</v>
@@ -32081,16 +32081,16 @@
         <v>359.0925053910005</v>
       </c>
       <c r="L15" t="n">
-        <v>482.844188265787</v>
+        <v>482.8441882657871</v>
       </c>
       <c r="M15" t="n">
-        <v>563.4563934171196</v>
+        <v>563.4563934171198</v>
       </c>
       <c r="N15" t="n">
-        <v>578.3694075340451</v>
+        <v>578.3694075340452</v>
       </c>
       <c r="O15" t="n">
-        <v>529.0950142582394</v>
+        <v>529.0950142582395</v>
       </c>
       <c r="P15" t="n">
         <v>424.6453947826651</v>
@@ -32102,10 +32102,10 @@
         <v>138.0697369778908</v>
       </c>
       <c r="S15" t="n">
-        <v>41.30583046774278</v>
+        <v>41.30583046774279</v>
       </c>
       <c r="T15" t="n">
-        <v>8.963413978714433</v>
+        <v>8.963413978714435</v>
       </c>
       <c r="U15" t="n">
         <v>0.1463016427428908</v>
@@ -32151,25 +32151,25 @@
         <v>16.57573628401093</v>
       </c>
       <c r="I16" t="n">
-        <v>56.06598734919032</v>
+        <v>56.06598734919034</v>
       </c>
       <c r="J16" t="n">
         <v>131.8093058085408</v>
       </c>
       <c r="K16" t="n">
-        <v>216.6031796622285</v>
+        <v>216.6031796622286</v>
       </c>
       <c r="L16" t="n">
         <v>277.1774961029802</v>
       </c>
       <c r="M16" t="n">
-        <v>292.2448064879348</v>
+        <v>292.2448064879349</v>
       </c>
       <c r="N16" t="n">
         <v>285.2958781889121</v>
       </c>
       <c r="O16" t="n">
-        <v>263.5169199834375</v>
+        <v>263.5169199834376</v>
       </c>
       <c r="P16" t="n">
         <v>225.484249000492</v>
@@ -32178,13 +32178,13 @@
         <v>156.1136062495139</v>
       </c>
       <c r="R16" t="n">
-        <v>83.82780333406747</v>
+        <v>83.82780333406748</v>
       </c>
       <c r="S16" t="n">
-        <v>32.49047694933427</v>
+        <v>32.49047694933428</v>
       </c>
       <c r="T16" t="n">
-        <v>7.965844635465368</v>
+        <v>7.96584463546537</v>
       </c>
       <c r="U16" t="n">
         <v>0.1016916336442389</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.156240973064362</v>
+        <v>4.156240973064364</v>
       </c>
       <c r="H17" t="n">
-        <v>42.56510286539541</v>
+        <v>42.56510286539543</v>
       </c>
       <c r="I17" t="n">
         <v>160.233480114064</v>
       </c>
       <c r="J17" t="n">
-        <v>352.7557572876217</v>
+        <v>352.7557572876219</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6894376774363</v>
+        <v>528.6894376774366</v>
       </c>
       <c r="L17" t="n">
-        <v>655.8859973568549</v>
+        <v>655.8859973568552</v>
       </c>
       <c r="M17" t="n">
-        <v>729.7995477615882</v>
+        <v>729.7995477615885</v>
       </c>
       <c r="N17" t="n">
-        <v>741.6084674263074</v>
+        <v>741.6084674263077</v>
       </c>
       <c r="O17" t="n">
-        <v>700.2798462503986</v>
+        <v>700.2798462503989</v>
       </c>
       <c r="P17" t="n">
-        <v>597.6726472278721</v>
+        <v>597.6726472278723</v>
       </c>
       <c r="Q17" t="n">
-        <v>448.8272673800045</v>
+        <v>448.8272673800046</v>
       </c>
       <c r="R17" t="n">
-        <v>261.0794720242545</v>
+        <v>261.0794720242546</v>
       </c>
       <c r="S17" t="n">
-        <v>94.71034117370425</v>
+        <v>94.71034117370429</v>
       </c>
       <c r="T17" t="n">
         <v>18.19394485958926</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3324992778451489</v>
+        <v>0.332499277845149</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32306,43 +32306,43 @@
         <v>2.223784969691939</v>
       </c>
       <c r="H18" t="n">
-        <v>21.47708115465636</v>
+        <v>21.47708115465637</v>
       </c>
       <c r="I18" t="n">
-        <v>76.56452636877947</v>
+        <v>76.56452636877951</v>
       </c>
       <c r="J18" t="n">
-        <v>210.0989124216406</v>
+        <v>210.0989124216407</v>
       </c>
       <c r="K18" t="n">
-        <v>359.0925053910005</v>
+        <v>359.0925053910006</v>
       </c>
       <c r="L18" t="n">
-        <v>482.844188265787</v>
+        <v>482.8441882657872</v>
       </c>
       <c r="M18" t="n">
-        <v>563.4563934171196</v>
+        <v>563.4563934171199</v>
       </c>
       <c r="N18" t="n">
-        <v>578.3694075340451</v>
+        <v>578.3694075340453</v>
       </c>
       <c r="O18" t="n">
-        <v>529.0950142582394</v>
+        <v>529.0950142582396</v>
       </c>
       <c r="P18" t="n">
-        <v>424.6453947826651</v>
+        <v>424.6453947826652</v>
       </c>
       <c r="Q18" t="n">
-        <v>283.8642006926061</v>
+        <v>283.8642006926062</v>
       </c>
       <c r="R18" t="n">
         <v>138.0697369778908</v>
       </c>
       <c r="S18" t="n">
-        <v>41.30583046774278</v>
+        <v>41.30583046774279</v>
       </c>
       <c r="T18" t="n">
-        <v>8.963413978714433</v>
+        <v>8.963413978714437</v>
       </c>
       <c r="U18" t="n">
         <v>0.1463016427428908</v>
@@ -32382,46 +32382,46 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.864346616811044</v>
+        <v>1.864346616811045</v>
       </c>
       <c r="H19" t="n">
-        <v>16.57573628401093</v>
+        <v>16.57573628401094</v>
       </c>
       <c r="I19" t="n">
-        <v>56.06598734919032</v>
+        <v>56.06598734919035</v>
       </c>
       <c r="J19" t="n">
-        <v>131.8093058085408</v>
+        <v>131.8093058085409</v>
       </c>
       <c r="K19" t="n">
-        <v>216.6031796622285</v>
+        <v>216.6031796622286</v>
       </c>
       <c r="L19" t="n">
-        <v>277.1774961029802</v>
+        <v>277.1774961029803</v>
       </c>
       <c r="M19" t="n">
-        <v>292.2448064879348</v>
+        <v>292.2448064879349</v>
       </c>
       <c r="N19" t="n">
-        <v>285.2958781889121</v>
+        <v>285.2958781889122</v>
       </c>
       <c r="O19" t="n">
-        <v>263.5169199834375</v>
+        <v>263.5169199834376</v>
       </c>
       <c r="P19" t="n">
-        <v>225.484249000492</v>
+        <v>225.4842490004921</v>
       </c>
       <c r="Q19" t="n">
-        <v>156.1136062495139</v>
+        <v>156.113606249514</v>
       </c>
       <c r="R19" t="n">
-        <v>83.82780333406747</v>
+        <v>83.82780333406751</v>
       </c>
       <c r="S19" t="n">
-        <v>32.49047694933427</v>
+        <v>32.49047694933429</v>
       </c>
       <c r="T19" t="n">
-        <v>7.965844635465368</v>
+        <v>7.965844635465372</v>
       </c>
       <c r="U19" t="n">
         <v>0.1016916336442389</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.156240973064362</v>
+        <v>4.156240973064364</v>
       </c>
       <c r="H20" t="n">
-        <v>42.56510286539541</v>
+        <v>42.56510286539543</v>
       </c>
       <c r="I20" t="n">
         <v>160.233480114064</v>
       </c>
       <c r="J20" t="n">
-        <v>352.7557572876217</v>
+        <v>352.7557572876219</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6894376774363</v>
+        <v>528.6894376774366</v>
       </c>
       <c r="L20" t="n">
-        <v>655.8859973568549</v>
+        <v>655.8859973568552</v>
       </c>
       <c r="M20" t="n">
-        <v>729.7995477615882</v>
+        <v>729.7995477615885</v>
       </c>
       <c r="N20" t="n">
-        <v>741.6084674263074</v>
+        <v>741.6084674263077</v>
       </c>
       <c r="O20" t="n">
-        <v>700.2798462503986</v>
+        <v>700.2798462503989</v>
       </c>
       <c r="P20" t="n">
-        <v>597.6726472278721</v>
+        <v>597.6726472278723</v>
       </c>
       <c r="Q20" t="n">
-        <v>448.8272673800045</v>
+        <v>448.8272673800046</v>
       </c>
       <c r="R20" t="n">
-        <v>261.0794720242545</v>
+        <v>261.0794720242546</v>
       </c>
       <c r="S20" t="n">
-        <v>94.71034117370425</v>
+        <v>94.71034117370429</v>
       </c>
       <c r="T20" t="n">
         <v>18.19394485958926</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3324992778451489</v>
+        <v>0.332499277845149</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32543,43 +32543,43 @@
         <v>2.223784969691939</v>
       </c>
       <c r="H21" t="n">
-        <v>21.47708115465636</v>
+        <v>21.47708115465637</v>
       </c>
       <c r="I21" t="n">
-        <v>76.56452636877947</v>
+        <v>76.56452636877951</v>
       </c>
       <c r="J21" t="n">
-        <v>210.0989124216406</v>
+        <v>210.0989124216407</v>
       </c>
       <c r="K21" t="n">
-        <v>359.0925053910005</v>
+        <v>359.0925053910006</v>
       </c>
       <c r="L21" t="n">
-        <v>482.844188265787</v>
+        <v>482.8441882657872</v>
       </c>
       <c r="M21" t="n">
-        <v>563.4563934171196</v>
+        <v>563.4563934171199</v>
       </c>
       <c r="N21" t="n">
-        <v>578.3694075340451</v>
+        <v>578.3694075340453</v>
       </c>
       <c r="O21" t="n">
-        <v>529.0950142582394</v>
+        <v>529.0950142582396</v>
       </c>
       <c r="P21" t="n">
-        <v>424.6453947826651</v>
+        <v>424.6453947826652</v>
       </c>
       <c r="Q21" t="n">
-        <v>283.8642006926061</v>
+        <v>283.8642006926062</v>
       </c>
       <c r="R21" t="n">
         <v>138.0697369778908</v>
       </c>
       <c r="S21" t="n">
-        <v>41.30583046774278</v>
+        <v>41.30583046774279</v>
       </c>
       <c r="T21" t="n">
-        <v>8.963413978714433</v>
+        <v>8.963413978714437</v>
       </c>
       <c r="U21" t="n">
         <v>0.1463016427428908</v>
@@ -32619,46 +32619,46 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.864346616811044</v>
+        <v>1.864346616811045</v>
       </c>
       <c r="H22" t="n">
-        <v>16.57573628401093</v>
+        <v>16.57573628401094</v>
       </c>
       <c r="I22" t="n">
-        <v>56.06598734919032</v>
+        <v>56.06598734919035</v>
       </c>
       <c r="J22" t="n">
-        <v>131.8093058085408</v>
+        <v>131.8093058085409</v>
       </c>
       <c r="K22" t="n">
-        <v>216.6031796622285</v>
+        <v>216.6031796622286</v>
       </c>
       <c r="L22" t="n">
-        <v>277.1774961029802</v>
+        <v>277.1774961029803</v>
       </c>
       <c r="M22" t="n">
-        <v>292.2448064879348</v>
+        <v>292.2448064879349</v>
       </c>
       <c r="N22" t="n">
-        <v>285.2958781889121</v>
+        <v>285.2958781889122</v>
       </c>
       <c r="O22" t="n">
-        <v>263.5169199834375</v>
+        <v>263.5169199834376</v>
       </c>
       <c r="P22" t="n">
-        <v>225.484249000492</v>
+        <v>225.4842490004921</v>
       </c>
       <c r="Q22" t="n">
-        <v>156.1136062495139</v>
+        <v>156.113606249514</v>
       </c>
       <c r="R22" t="n">
-        <v>83.82780333406747</v>
+        <v>83.82780333406751</v>
       </c>
       <c r="S22" t="n">
-        <v>32.49047694933427</v>
+        <v>32.49047694933429</v>
       </c>
       <c r="T22" t="n">
-        <v>7.965844635465368</v>
+        <v>7.965844635465372</v>
       </c>
       <c r="U22" t="n">
         <v>0.1016916336442389</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I29" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33257,40 +33257,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33345,16 +33345,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33363,16 +33363,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I32" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33494,40 +33494,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33582,16 +33582,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33600,16 +33600,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33986,7 +33986,7 @@
         <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970252</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P39" t="n">
         <v>447.6103584002926</v>
@@ -34457,7 +34457,7 @@
         <v>593.9283018233474</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837928</v>
       </c>
       <c r="O45" t="n">
         <v>557.7086478970249</v>
@@ -35410,28 +35410,28 @@
         <v>171.7098527609355</v>
       </c>
       <c r="K11" t="n">
-        <v>308.5995866324558</v>
+        <v>308.5995866324559</v>
       </c>
       <c r="L11" t="n">
-        <v>420.1195823868676</v>
+        <v>420.1195823868678</v>
       </c>
       <c r="M11" t="n">
-        <v>499.4533145343155</v>
+        <v>499.4533145343157</v>
       </c>
       <c r="N11" t="n">
-        <v>512.1954038297165</v>
+        <v>512.1954038297167</v>
       </c>
       <c r="O11" t="n">
-        <v>470.1816348287118</v>
+        <v>470.181634828712</v>
       </c>
       <c r="P11" t="n">
-        <v>366.4396514726025</v>
+        <v>366.4396514726026</v>
       </c>
       <c r="Q11" t="n">
-        <v>226.521577505555</v>
+        <v>226.5215775055551</v>
       </c>
       <c r="R11" t="n">
-        <v>45.49393421012235</v>
+        <v>45.4939342101224</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>83.2612857549739</v>
+        <v>83.26128575497395</v>
       </c>
       <c r="K12" t="n">
         <v>221.2510664166415</v>
       </c>
       <c r="L12" t="n">
-        <v>344.2898084859128</v>
+        <v>344.2898084859129</v>
       </c>
       <c r="M12" t="n">
-        <v>421.3223594951012</v>
+        <v>421.3223594951015</v>
       </c>
       <c r="N12" t="n">
-        <v>447.0276954507118</v>
+        <v>447.0276954507119</v>
       </c>
       <c r="O12" t="n">
-        <v>386.498769813795</v>
+        <v>386.4987698137951</v>
       </c>
       <c r="P12" t="n">
-        <v>290.6709873683348</v>
+        <v>290.6709873683349</v>
       </c>
       <c r="Q12" t="n">
-        <v>143.8824266065845</v>
+        <v>143.8824266065846</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>76.96356605509709</v>
+        <v>76.963566055097</v>
       </c>
       <c r="K13" t="n">
         <v>232.8471281995747</v>
@@ -35583,7 +35583,7 @@
         <v>326.6154882607062</v>
       </c>
       <c r="P13" t="n">
-        <v>261.2762486286146</v>
+        <v>261.2762486286145</v>
       </c>
       <c r="Q13" t="n">
         <v>108.4650033610485</v>
@@ -35647,28 +35647,28 @@
         <v>171.7098527609355</v>
       </c>
       <c r="K14" t="n">
-        <v>308.5995866324558</v>
+        <v>308.5995866324559</v>
       </c>
       <c r="L14" t="n">
-        <v>420.1195823868676</v>
+        <v>420.1195823868678</v>
       </c>
       <c r="M14" t="n">
-        <v>499.4533145343155</v>
+        <v>499.4533145343157</v>
       </c>
       <c r="N14" t="n">
-        <v>512.1954038297165</v>
+        <v>512.1954038297167</v>
       </c>
       <c r="O14" t="n">
-        <v>470.1816348287118</v>
+        <v>470.181634828712</v>
       </c>
       <c r="P14" t="n">
-        <v>366.4396514726025</v>
+        <v>366.4396514726026</v>
       </c>
       <c r="Q14" t="n">
-        <v>226.521577505555</v>
+        <v>226.5215775055551</v>
       </c>
       <c r="R14" t="n">
-        <v>45.49393421012235</v>
+        <v>45.4939342101224</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>83.2612857549739</v>
+        <v>83.26128575497395</v>
       </c>
       <c r="K15" t="n">
         <v>221.2510664166415</v>
       </c>
       <c r="L15" t="n">
-        <v>344.2898084859128</v>
+        <v>344.2898084859129</v>
       </c>
       <c r="M15" t="n">
-        <v>421.3223594951012</v>
+        <v>421.3223594951015</v>
       </c>
       <c r="N15" t="n">
-        <v>447.0276954507118</v>
+        <v>447.0276954507119</v>
       </c>
       <c r="O15" t="n">
-        <v>386.498769813795</v>
+        <v>386.4987698137951</v>
       </c>
       <c r="P15" t="n">
-        <v>290.6709873683348</v>
+        <v>290.6709873683349</v>
       </c>
       <c r="Q15" t="n">
-        <v>143.8824266065845</v>
+        <v>143.8824266065846</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,13 +35802,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>76.96356605509709</v>
+        <v>76.96356605509708</v>
       </c>
       <c r="K16" t="n">
         <v>232.8471281995747</v>
       </c>
       <c r="L16" t="n">
-        <v>343.2809617265253</v>
+        <v>343.2809617265254</v>
       </c>
       <c r="M16" t="n">
         <v>370.3421238130044</v>
@@ -35823,7 +35823,7 @@
         <v>261.2762486286146</v>
       </c>
       <c r="Q16" t="n">
-        <v>108.4650033610485</v>
+        <v>108.4650033610486</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>171.7098527609355</v>
+        <v>171.7098527609356</v>
       </c>
       <c r="K17" t="n">
-        <v>308.5995866324558</v>
+        <v>308.599586632456</v>
       </c>
       <c r="L17" t="n">
-        <v>420.1195823868676</v>
+        <v>420.119582386868</v>
       </c>
       <c r="M17" t="n">
-        <v>499.4533145343155</v>
+        <v>499.4533145343158</v>
       </c>
       <c r="N17" t="n">
-        <v>512.1954038297165</v>
+        <v>512.1954038297167</v>
       </c>
       <c r="O17" t="n">
-        <v>470.1816348287118</v>
+        <v>470.1816348287122</v>
       </c>
       <c r="P17" t="n">
-        <v>366.4396514726025</v>
+        <v>366.4396514726027</v>
       </c>
       <c r="Q17" t="n">
-        <v>226.521577505555</v>
+        <v>226.5215775055551</v>
       </c>
       <c r="R17" t="n">
-        <v>45.49393421012235</v>
+        <v>45.49393421012246</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>83.2612857549739</v>
+        <v>83.26128575497398</v>
       </c>
       <c r="K18" t="n">
-        <v>221.2510664166415</v>
+        <v>221.2510664166416</v>
       </c>
       <c r="L18" t="n">
-        <v>344.2898084859128</v>
+        <v>344.289808485913</v>
       </c>
       <c r="M18" t="n">
-        <v>421.3223594951012</v>
+        <v>421.3223594951016</v>
       </c>
       <c r="N18" t="n">
-        <v>447.0276954507118</v>
+        <v>447.027695450712</v>
       </c>
       <c r="O18" t="n">
-        <v>386.498769813795</v>
+        <v>386.4987698137952</v>
       </c>
       <c r="P18" t="n">
-        <v>290.6709873683348</v>
+        <v>290.670987368335</v>
       </c>
       <c r="Q18" t="n">
-        <v>143.8824266065845</v>
+        <v>143.8824266065847</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,10 +36042,10 @@
         <v>102.4986045972498</v>
       </c>
       <c r="K19" t="n">
-        <v>185.2746417197982</v>
+        <v>87.58992149169325</v>
       </c>
       <c r="L19" t="n">
-        <v>231.7456929539451</v>
+        <v>239.977540049847</v>
       </c>
       <c r="M19" t="n">
         <v>251.0037427684348</v>
@@ -36057,13 +36057,13 @@
         <v>222.7451017596998</v>
       </c>
       <c r="P19" t="n">
-        <v>87.75624495134437</v>
+        <v>185.4409651794495</v>
       </c>
       <c r="Q19" t="n">
-        <v>102.2933248481731</v>
+        <v>98.2806099372756</v>
       </c>
       <c r="R19" t="n">
-        <v>4.21913218500309</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>171.7098527609355</v>
+        <v>171.7098527609356</v>
       </c>
       <c r="K20" t="n">
-        <v>308.5995866324558</v>
+        <v>308.599586632456</v>
       </c>
       <c r="L20" t="n">
-        <v>420.1195823868676</v>
+        <v>420.119582386868</v>
       </c>
       <c r="M20" t="n">
-        <v>499.4533145343155</v>
+        <v>499.4533145343158</v>
       </c>
       <c r="N20" t="n">
-        <v>512.1954038297165</v>
+        <v>512.1954038297167</v>
       </c>
       <c r="O20" t="n">
-        <v>470.1816348287118</v>
+        <v>470.1816348287122</v>
       </c>
       <c r="P20" t="n">
-        <v>366.4396514726025</v>
+        <v>366.4396514726027</v>
       </c>
       <c r="Q20" t="n">
-        <v>226.521577505555</v>
+        <v>226.5215775055551</v>
       </c>
       <c r="R20" t="n">
-        <v>45.49393421012235</v>
+        <v>45.49393421012246</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>83.2612857549739</v>
+        <v>83.26128575497398</v>
       </c>
       <c r="K21" t="n">
-        <v>221.2510664166415</v>
+        <v>221.2510664166416</v>
       </c>
       <c r="L21" t="n">
-        <v>344.2898084859128</v>
+        <v>344.289808485913</v>
       </c>
       <c r="M21" t="n">
-        <v>421.3223594951012</v>
+        <v>421.3223594951016</v>
       </c>
       <c r="N21" t="n">
-        <v>447.0276954507118</v>
+        <v>447.027695450712</v>
       </c>
       <c r="O21" t="n">
-        <v>386.498769813795</v>
+        <v>386.4987698137952</v>
       </c>
       <c r="P21" t="n">
-        <v>290.6709873683348</v>
+        <v>290.670987368335</v>
       </c>
       <c r="Q21" t="n">
-        <v>143.8824266065845</v>
+        <v>143.8824266065847</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>102.4986045972498</v>
+        <v>4.813884369144759</v>
       </c>
       <c r="K22" t="n">
         <v>185.2746417197982</v>
@@ -36291,16 +36291,16 @@
         <v>255.295053951784</v>
       </c>
       <c r="O22" t="n">
-        <v>125.0603815315947</v>
+        <v>218.7323868488022</v>
       </c>
       <c r="P22" t="n">
         <v>185.4409651794495</v>
       </c>
       <c r="Q22" t="n">
-        <v>94.06147775227137</v>
+        <v>102.2933248481731</v>
       </c>
       <c r="R22" t="n">
-        <v>4.21913218500309</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36510,34 +36510,34 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1.332299818266996</v>
+        <v>1.332299818266911</v>
       </c>
       <c r="J25" t="n">
-        <v>11.94217529034286</v>
+        <v>109.6268955184479</v>
       </c>
       <c r="K25" t="n">
-        <v>175.6323267038238</v>
+        <v>196.988613427772</v>
       </c>
       <c r="L25" t="n">
-        <v>254.9673908567488</v>
+        <v>233.6111041328025</v>
       </c>
       <c r="M25" t="n">
-        <v>169.1237184840381</v>
+        <v>266.8084387121431</v>
       </c>
       <c r="N25" t="n">
-        <v>270.7239495511834</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O25" t="n">
-        <v>236.9961840848624</v>
+        <v>236.9961840848623</v>
       </c>
       <c r="P25" t="n">
-        <v>197.6352280591744</v>
+        <v>197.6352280591743</v>
       </c>
       <c r="Q25" t="n">
-        <v>110.7360003882473</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R25" t="n">
-        <v>8.752567558057763</v>
+        <v>8.752567558057677</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36589,13 +36589,13 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>17.59435009195008</v>
+        <v>17.5943500919501</v>
       </c>
       <c r="J26" t="n">
         <v>249.9582808335886</v>
       </c>
       <c r="K26" t="n">
-        <v>396.3625664202764</v>
+        <v>396.3625664202765</v>
       </c>
       <c r="L26" t="n">
         <v>514.7613942572079</v>
@@ -36607,10 +36607,10 @@
         <v>611.4731152777874</v>
       </c>
       <c r="O26" t="n">
-        <v>567.2242807530951</v>
+        <v>567.2242807530952</v>
       </c>
       <c r="P26" t="n">
-        <v>457.9332660842481</v>
+        <v>457.9332660842477</v>
       </c>
       <c r="Q26" t="n">
         <v>309.9655846685955</v>
@@ -36753,16 +36753,16 @@
         <v>104.7496964779423</v>
       </c>
       <c r="K28" t="n">
-        <v>158.475173064543</v>
+        <v>265.2189394091956</v>
       </c>
       <c r="L28" t="n">
         <v>378.9286520350742</v>
       </c>
       <c r="M28" t="n">
-        <v>406.8046592583598</v>
+        <v>228.2949983489142</v>
       </c>
       <c r="N28" t="n">
-        <v>232.2105091879543</v>
+        <v>285.8683512761176</v>
       </c>
       <c r="O28" t="n">
         <v>361.5244100875158</v>
@@ -36771,7 +36771,7 @@
         <v>294.1283510099864</v>
       </c>
       <c r="Q28" t="n">
-        <v>119.4574659261402</v>
+        <v>137.5655184027697</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,28 +36826,28 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>17.59435009195008</v>
+        <v>17.59435009195006</v>
       </c>
       <c r="J29" t="n">
         <v>249.9582808335886</v>
       </c>
       <c r="K29" t="n">
-        <v>396.3625664202764</v>
+        <v>396.3625664202765</v>
       </c>
       <c r="L29" t="n">
-        <v>514.7613942572079</v>
+        <v>514.7613942572082</v>
       </c>
       <c r="M29" t="n">
-        <v>598.0923956951026</v>
+        <v>598.0923956951028</v>
       </c>
       <c r="N29" t="n">
-        <v>611.4731152777874</v>
+        <v>611.4731152777875</v>
       </c>
       <c r="O29" t="n">
-        <v>567.2242807530951</v>
+        <v>567.2242807530952</v>
       </c>
       <c r="P29" t="n">
-        <v>457.9332660842477</v>
+        <v>457.9332660842479</v>
       </c>
       <c r="Q29" t="n">
         <v>309.9655846685955</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,19 +36987,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>71.11345515521892</v>
+        <v>104.7496964779422</v>
       </c>
       <c r="K31" t="n">
-        <v>158.475173064543</v>
+        <v>265.2189394091956</v>
       </c>
       <c r="L31" t="n">
         <v>378.9286520350742</v>
       </c>
       <c r="M31" t="n">
-        <v>406.8046592583598</v>
+        <v>228.2949983489142</v>
       </c>
       <c r="N31" t="n">
-        <v>247.7386980340482</v>
+        <v>285.868351276119</v>
       </c>
       <c r="O31" t="n">
         <v>361.5244100875158</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>17.59435009195008</v>
+        <v>17.59435009195002</v>
       </c>
       <c r="J32" t="n">
-        <v>249.9582808335886</v>
+        <v>249.9582808335885</v>
       </c>
       <c r="K32" t="n">
-        <v>396.3625664202765</v>
+        <v>396.3625664202764</v>
       </c>
       <c r="L32" t="n">
-        <v>514.7613942572082</v>
+        <v>514.7613942572079</v>
       </c>
       <c r="M32" t="n">
-        <v>598.0923956951028</v>
+        <v>598.0923956951025</v>
       </c>
       <c r="N32" t="n">
-        <v>611.4731152777875</v>
+        <v>611.4731152777873</v>
       </c>
       <c r="O32" t="n">
-        <v>567.2242807530952</v>
+        <v>567.2242807530951</v>
       </c>
       <c r="P32" t="n">
-        <v>457.9332660842479</v>
+        <v>457.9332660842476</v>
       </c>
       <c r="Q32" t="n">
-        <v>309.9655846685955</v>
+        <v>309.9655846685954</v>
       </c>
       <c r="R32" t="n">
-        <v>118.7844784071008</v>
+        <v>118.7844784071018</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>104.7496964779423</v>
+        <v>104.7496964779422</v>
       </c>
       <c r="K34" t="n">
-        <v>265.2189394091956</v>
+        <v>212.4020230306507</v>
       </c>
       <c r="L34" t="n">
-        <v>378.9286520350742</v>
+        <v>378.928652035074</v>
       </c>
       <c r="M34" t="n">
-        <v>406.8046592583598</v>
+        <v>228.2949983489141</v>
       </c>
       <c r="N34" t="n">
-        <v>404.0282260324161</v>
+        <v>404.028226032416</v>
       </c>
       <c r="O34" t="n">
-        <v>199.8614377358136</v>
+        <v>361.5244100875157</v>
       </c>
       <c r="P34" t="n">
-        <v>159.1217876959454</v>
+        <v>294.1283510099864</v>
       </c>
       <c r="Q34" t="n">
-        <v>137.5655184027697</v>
+        <v>72.22256002501817</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37318,7 +37318,7 @@
         <v>552.3018354129113</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882196</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P35" t="n">
         <v>398.7619862193716</v>
@@ -37458,22 +37458,22 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>1.33229981826684</v>
+        <v>1.332299818266854</v>
       </c>
       <c r="J37" t="n">
         <v>109.6268955184478</v>
       </c>
       <c r="K37" t="n">
-        <v>99.30389319966699</v>
+        <v>196.988613427772</v>
       </c>
       <c r="L37" t="n">
-        <v>233.6111041328041</v>
+        <v>233.6111041328036</v>
       </c>
       <c r="M37" t="n">
         <v>266.8084387121431</v>
       </c>
       <c r="N37" t="n">
-        <v>270.7239495511832</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O37" t="n">
         <v>139.3114638567573</v>
@@ -37485,7 +37485,7 @@
         <v>110.7360003882471</v>
       </c>
       <c r="R37" t="n">
-        <v>8.752567558057606</v>
+        <v>8.752567558057621</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37634,7 +37634,7 @@
         <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
@@ -37695,13 +37695,13 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>1.33229981826684</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>109.6268955184478</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K40" t="n">
-        <v>175.6323267038275</v>
+        <v>196.988613427772</v>
       </c>
       <c r="L40" t="n">
         <v>254.9673908567486</v>
@@ -37710,19 +37710,19 @@
         <v>266.8084387121431</v>
       </c>
       <c r="N40" t="n">
-        <v>173.0392293230782</v>
+        <v>270.7239495511832</v>
       </c>
       <c r="O40" t="n">
-        <v>139.3114638567573</v>
+        <v>236.9961840848623</v>
       </c>
       <c r="P40" t="n">
-        <v>197.6352280591742</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q40" t="n">
-        <v>110.7360003882471</v>
+        <v>99.46458104062629</v>
       </c>
       <c r="R40" t="n">
-        <v>8.752567558057606</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37932,34 +37932,34 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>1.332299818266911</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>109.6268955184479</v>
       </c>
       <c r="K43" t="n">
-        <v>99.30389319966699</v>
+        <v>196.988613427772</v>
       </c>
       <c r="L43" t="n">
         <v>254.9673908567487</v>
       </c>
       <c r="M43" t="n">
-        <v>266.8084387121431</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N43" t="n">
-        <v>270.7239495511833</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O43" t="n">
-        <v>215.6398973609162</v>
+        <v>225.7247647372408</v>
       </c>
       <c r="P43" t="n">
         <v>197.6352280591743</v>
       </c>
       <c r="Q43" t="n">
-        <v>13.05128016014217</v>
+        <v>110.7360003882472</v>
       </c>
       <c r="R43" t="n">
-        <v>8.752567558057677</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38105,7 +38105,7 @@
         <v>451.7942679013291</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004595</v>
       </c>
       <c r="O45" t="n">
         <v>415.1124034525805</v>
@@ -38169,16 +38169,16 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>1.332299818266911</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>109.6268955184479</v>
+        <v>98.35547617082629</v>
       </c>
       <c r="K46" t="n">
-        <v>175.6323267038261</v>
+        <v>196.988613427772</v>
       </c>
       <c r="L46" t="n">
-        <v>157.2826706286436</v>
+        <v>254.9673908567487</v>
       </c>
       <c r="M46" t="n">
         <v>266.8084387121431</v>
@@ -38187,16 +38187,16 @@
         <v>270.7239495511833</v>
       </c>
       <c r="O46" t="n">
-        <v>139.3114638567573</v>
+        <v>236.9961840848623</v>
       </c>
       <c r="P46" t="n">
-        <v>197.6352280591743</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q46" t="n">
-        <v>110.7360003882472</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R46" t="n">
-        <v>8.752567558057677</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
